--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7B241-1D49-4006-9663-99272054EEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0571A4A-BF04-44A6-A820-47E7063430C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>ABDON BAPTISTA (E.M. DR.) (U)</t>
   </si>
   <si>
-    <t>JOINVILLE</t>
-  </si>
-  <si>
     <t>ADA SANT´ANNA DA SILVEIRA (EM. PROFª)(U)</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>GENERO</t>
-  </si>
-  <si>
-    <t>FEMININO</t>
   </si>
   <si>
     <t>10</t>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>BERMUDA SUPLEX</t>
+  </si>
+  <si>
+    <t>BOTUCATU</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,40 +674,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="12">
         <v>25</v>
@@ -750,16 +750,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="12">
         <v>40</v>
@@ -786,25 +786,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="15">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="F4" s="15">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G4" s="15">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="H4" s="12">
         <v>10</v>
@@ -815,21 +815,25 @@
       <c r="J4" s="12">
         <v>1</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="14"/>
+      <c r="K4" s="16">
+        <v>412</v>
+      </c>
+      <c r="L4" s="14">
+        <v>326</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="12">
         <v>90</v>

--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ventura_project\ventura_project_backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42914CB8-0430-41AF-A9BC-E9C96F852455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F742AD7-97EA-4CDB-A3F8-58106BD23373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -311,12 +320,6 @@
     <t>KIT UNIFORME</t>
   </si>
   <si>
-    <t>UNISSEX</t>
-  </si>
-  <si>
-    <t>CAMPINAS</t>
-  </si>
-  <si>
     <t>E0101-escola teste cei(u) 935</t>
   </si>
   <si>
@@ -324,6 +327,12 @@
   </si>
   <si>
     <t>xgg</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>umuarama</t>
   </si>
 </sst>
 </file>
@@ -837,24 +846,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4">
         <v>7</v>
@@ -880,13 +889,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4">
         <v>60</v>
@@ -912,13 +921,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4">
         <v>50</v>
@@ -944,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
@@ -976,13 +985,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4">
         <v>50</v>

--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ventura_project\ventura_project_backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F742AD7-97EA-4CDB-A3F8-58106BD23373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C8266-4F45-44CA-83C9-C4F2BDEA251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>PROJETO</t>
   </si>
@@ -329,10 +329,13 @@
     <t>xgg</t>
   </si>
   <si>
-    <t>masculino</t>
+    <t>londrina</t>
   </si>
   <si>
-    <t>umuarama</t>
+    <t xml:space="preserve">KIT UNIFORME </t>
+  </si>
+  <si>
+    <t>feminino</t>
   </si>
 </sst>
 </file>
@@ -857,13 +860,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4">
         <v>7</v>
@@ -889,13 +892,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4">
         <v>60</v>
@@ -921,13 +924,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4">
         <v>50</v>
@@ -953,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
@@ -985,13 +988,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4">
         <v>50</v>

--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ventura_project\ventura_project_backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C8266-4F45-44CA-83C9-C4F2BDEA251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84D20E5-AAB1-4030-BF44-25A4C098F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>PROJETO</t>
   </si>
@@ -317,9 +317,6 @@
     </r>
   </si>
   <si>
-    <t>KIT UNIFORME</t>
-  </si>
-  <si>
     <t>E0101-escola teste cei(u) 935</t>
   </si>
   <si>
@@ -332,10 +329,25 @@
     <t>londrina</t>
   </si>
   <si>
-    <t xml:space="preserve">KIT UNIFORME </t>
+    <t>feminino</t>
   </si>
   <si>
-    <t>feminino</t>
+    <t>UNISSEX</t>
+  </si>
+  <si>
+    <t>regata</t>
+  </si>
+  <si>
+    <t>casaco moletom</t>
+  </si>
+  <si>
+    <t>suéter</t>
+  </si>
+  <si>
+    <t>calça</t>
+  </si>
+  <si>
+    <t>meia</t>
   </si>
 </sst>
 </file>
@@ -849,24 +861,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="4">
         <v>7</v>
@@ -892,13 +904,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="4">
         <v>60</v>
@@ -924,31 +936,31 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4">
         <v>50</v>
       </c>
       <c r="F4" s="4">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -956,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
@@ -988,31 +1000,31 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G6" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H6" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">

--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC3E2F-DB65-46D5-BBF9-4CEB85DFD450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F60B0A-B109-4BB1-BB69-9CC34673EDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="947">
   <si>
     <t>PROJETO</t>
   </si>
@@ -2866,15 +2866,6 @@
   </si>
   <si>
     <t>ZILDA ARNS NEUMANN CEI (U)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3479,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AB784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3597,22 +3588,26 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2</v>
+      </c>
       <c r="K2" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L2" s="9">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="M2" s="9">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="N2" s="9">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="O2" s="9">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3650,18 +3645,10 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="9">
-        <v>60</v>
-      </c>
-      <c r="M3" s="9">
-        <v>40</v>
-      </c>
-      <c r="N3" s="9">
-        <v>60</v>
-      </c>
-      <c r="O3" s="9">
-        <v>50</v>
-      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -3697,21 +3684,11 @@
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9">
-        <v>20</v>
-      </c>
-      <c r="L4" s="9">
-        <v>45</v>
-      </c>
-      <c r="M4" s="9">
-        <v>40</v>
-      </c>
-      <c r="N4" s="9">
-        <v>40</v>
-      </c>
-      <c r="O4" s="9">
-        <v>30</v>
-      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -3746,18 +3723,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9">
-        <v>97</v>
-      </c>
-      <c r="K5" s="9">
-        <v>70</v>
-      </c>
-      <c r="L5" s="9">
-        <v>150</v>
-      </c>
-      <c r="M5" s="9">
-        <v>150</v>
-      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="4"/>
@@ -3795,21 +3764,11 @@
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>8</v>
-      </c>
-      <c r="N6" s="9">
-        <v>3</v>
-      </c>
-      <c r="O6" s="9">
-        <v>2</v>
-      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -3844,24 +3803,12 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9">
-        <v>20</v>
-      </c>
-      <c r="K7" s="9">
-        <v>30</v>
-      </c>
-      <c r="L7" s="9">
-        <v>30</v>
-      </c>
-      <c r="M7" s="9">
-        <v>30</v>
-      </c>
-      <c r="N7" s="9">
-        <v>30</v>
-      </c>
-      <c r="O7" s="9">
-        <v>30</v>
-      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -3895,27 +3842,13 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>6</v>
-      </c>
-      <c r="K8" s="9">
-        <v>10</v>
-      </c>
-      <c r="L8" s="9">
-        <v>20</v>
-      </c>
-      <c r="M8" s="9">
-        <v>12</v>
-      </c>
-      <c r="N8" s="9">
-        <v>10</v>
-      </c>
-      <c r="O8" s="9">
-        <v>7</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -3950,24 +3883,12 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>50</v>
-      </c>
-      <c r="L9" s="9">
-        <v>50</v>
-      </c>
-      <c r="M9" s="9">
-        <v>50</v>
-      </c>
-      <c r="N9" s="9">
-        <v>50</v>
-      </c>
-      <c r="O9" s="9">
-        <v>50</v>
-      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -4003,21 +3924,11 @@
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9">
-        <v>25</v>
-      </c>
-      <c r="L10" s="9">
-        <v>60</v>
-      </c>
-      <c r="M10" s="9">
-        <v>40</v>
-      </c>
-      <c r="N10" s="9">
-        <v>40</v>
-      </c>
-      <c r="O10" s="9">
-        <v>15</v>
-      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -4051,18 +3962,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>41</v>
-      </c>
-      <c r="L11" s="9">
-        <v>14</v>
-      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -4100,24 +4003,12 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
-        <v>31</v>
-      </c>
-      <c r="L12" s="9">
-        <v>60</v>
-      </c>
-      <c r="M12" s="9">
-        <v>57</v>
-      </c>
-      <c r="N12" s="9">
-        <v>34</v>
-      </c>
-      <c r="O12" s="9">
-        <v>15</v>
-      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -4153,21 +4044,11 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9">
-        <v>40</v>
-      </c>
-      <c r="L13" s="9">
-        <v>90</v>
-      </c>
-      <c r="M13" s="9">
-        <v>90</v>
-      </c>
-      <c r="N13" s="9">
-        <v>90</v>
-      </c>
-      <c r="O13" s="9">
-        <v>90</v>
-      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -4203,18 +4084,10 @@
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9">
-        <v>24</v>
-      </c>
-      <c r="L14" s="9">
-        <v>70</v>
-      </c>
-      <c r="M14" s="9">
-        <v>40</v>
-      </c>
-      <c r="N14" s="9">
-        <v>75</v>
-      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -4249,27 +4122,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="J15" s="9">
-        <v>40</v>
-      </c>
-      <c r="K15" s="9">
-        <v>80</v>
-      </c>
-      <c r="L15" s="9">
-        <v>80</v>
-      </c>
-      <c r="M15" s="9">
-        <v>100</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -4304,24 +4163,12 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9">
-        <v>2</v>
-      </c>
-      <c r="K16" s="9">
-        <v>28</v>
-      </c>
-      <c r="L16" s="9">
-        <v>45</v>
-      </c>
-      <c r="M16" s="9">
-        <v>45</v>
-      </c>
-      <c r="N16" s="9">
-        <v>20</v>
-      </c>
-      <c r="O16" s="9">
-        <v>20</v>
-      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -4357,21 +4204,11 @@
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9">
-        <v>40</v>
-      </c>
-      <c r="L17" s="9">
-        <v>100</v>
-      </c>
-      <c r="M17" s="9">
-        <v>65</v>
-      </c>
-      <c r="N17" s="9">
-        <v>30</v>
-      </c>
-      <c r="O17" s="9">
-        <v>15</v>
-      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -4405,27 +4242,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="K18" s="9">
-        <v>70</v>
-      </c>
-      <c r="L18" s="9">
-        <v>30</v>
-      </c>
-      <c r="M18" s="9">
-        <v>30</v>
-      </c>
-      <c r="N18" s="9">
-        <v>5</v>
-      </c>
-      <c r="O18" s="9">
-        <v>10</v>
-      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -4460,24 +4283,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9">
-        <v>2</v>
-      </c>
-      <c r="K19" s="9">
-        <v>20</v>
-      </c>
-      <c r="L19" s="9">
-        <v>30</v>
-      </c>
-      <c r="M19" s="9">
-        <v>30</v>
-      </c>
-      <c r="N19" s="9">
-        <v>50</v>
-      </c>
-      <c r="O19" s="9">
-        <v>50</v>
-      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -4513,15 +4324,9 @@
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9">
-        <v>50</v>
-      </c>
-      <c r="L20" s="9">
-        <v>90</v>
-      </c>
-      <c r="M20" s="9">
-        <v>80</v>
-      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="4"/>
@@ -4559,21 +4364,11 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9">
-        <v>40</v>
-      </c>
-      <c r="L21" s="9">
-        <v>90</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -4607,27 +4402,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="K22" s="9">
-        <v>32</v>
-      </c>
-      <c r="L22" s="9">
-        <v>78</v>
-      </c>
-      <c r="M22" s="9">
-        <v>88</v>
-      </c>
-      <c r="N22" s="9">
-        <v>78</v>
-      </c>
-      <c r="O22" s="9">
-        <v>78</v>
-      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -4662,24 +4443,12 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9">
-        <v>20</v>
-      </c>
-      <c r="K23" s="9">
-        <v>90</v>
-      </c>
-      <c r="L23" s="9">
-        <v>100</v>
-      </c>
-      <c r="M23" s="9">
-        <v>60</v>
-      </c>
-      <c r="N23" s="9">
-        <v>40</v>
-      </c>
-      <c r="O23" s="9">
-        <v>20</v>
-      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -4714,24 +4483,12 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9">
-        <v>10</v>
-      </c>
-      <c r="K24" s="9">
-        <v>50</v>
-      </c>
-      <c r="L24" s="9">
-        <v>60</v>
-      </c>
-      <c r="M24" s="9">
-        <v>80</v>
-      </c>
-      <c r="N24" s="9">
-        <v>80</v>
-      </c>
-      <c r="O24" s="9">
-        <v>70</v>
-      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -4767,21 +4524,11 @@
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9">
-        <v>5</v>
-      </c>
-      <c r="L25" s="9">
-        <v>9</v>
-      </c>
-      <c r="M25" s="9">
-        <v>9</v>
-      </c>
-      <c r="N25" s="9">
-        <v>7</v>
-      </c>
-      <c r="O25" s="9">
-        <v>5</v>
-      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -4817,21 +4564,11 @@
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9">
-        <v>4</v>
-      </c>
-      <c r="L26" s="9">
-        <v>3</v>
-      </c>
-      <c r="M26" s="9">
-        <v>7</v>
-      </c>
-      <c r="N26" s="9">
-        <v>5</v>
-      </c>
-      <c r="O26" s="9">
-        <v>1</v>
-      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -4866,24 +4603,12 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9">
-        <v>20</v>
-      </c>
-      <c r="K27" s="9">
-        <v>30</v>
-      </c>
-      <c r="L27" s="9">
-        <v>30</v>
-      </c>
-      <c r="M27" s="9">
-        <v>35</v>
-      </c>
-      <c r="N27" s="9">
-        <v>35</v>
-      </c>
-      <c r="O27" s="9">
-        <v>5</v>
-      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -4919,18 +4644,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="9">
-        <v>12</v>
-      </c>
-      <c r="L28" s="9">
-        <v>9</v>
-      </c>
-      <c r="M28" s="9">
-        <v>10</v>
-      </c>
-      <c r="N28" s="9">
-        <v>10</v>
-      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -4966,24 +4683,12 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9">
-        <v>2</v>
-      </c>
-      <c r="K29" s="9">
-        <v>10</v>
-      </c>
-      <c r="L29" s="9">
-        <v>15</v>
-      </c>
-      <c r="M29" s="9">
-        <v>12</v>
-      </c>
-      <c r="N29" s="9">
-        <v>16</v>
-      </c>
-      <c r="O29" s="9">
-        <v>7</v>
-      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -5019,21 +4724,11 @@
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9">
-        <v>60</v>
-      </c>
-      <c r="L30" s="9">
-        <v>70</v>
-      </c>
-      <c r="M30" s="9">
-        <v>74</v>
-      </c>
-      <c r="N30" s="9">
-        <v>40</v>
-      </c>
-      <c r="O30" s="9">
-        <v>12</v>
-      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -5069,21 +4764,11 @@
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9">
-        <v>100</v>
-      </c>
-      <c r="L31" s="9">
-        <v>100</v>
-      </c>
-      <c r="M31" s="9">
-        <v>100</v>
-      </c>
-      <c r="N31" s="9">
-        <v>100</v>
-      </c>
-      <c r="O31" s="9">
-        <v>100</v>
-      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -5119,21 +4804,11 @@
       <c r="H32" s="8"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="9">
-        <v>12</v>
-      </c>
-      <c r="L32" s="9">
-        <v>10</v>
-      </c>
-      <c r="M32" s="9">
-        <v>6</v>
-      </c>
-      <c r="N32" s="9">
-        <v>13</v>
-      </c>
-      <c r="O32" s="9">
-        <v>6</v>
-      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -5169,15 +4844,9 @@
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="9">
-        <v>25</v>
-      </c>
-      <c r="L33" s="9">
-        <v>50</v>
-      </c>
-      <c r="M33" s="9">
-        <v>60</v>
-      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="4"/>
@@ -5214,24 +4883,12 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9">
-        <v>5</v>
-      </c>
-      <c r="K34" s="9">
-        <v>68</v>
-      </c>
-      <c r="L34" s="9">
-        <v>133</v>
-      </c>
-      <c r="M34" s="9">
-        <v>90</v>
-      </c>
-      <c r="N34" s="9">
-        <v>45</v>
-      </c>
-      <c r="O34" s="9">
-        <v>35</v>
-      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -5267,21 +4924,11 @@
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="9">
-        <v>20</v>
-      </c>
-      <c r="L35" s="9">
-        <v>35</v>
-      </c>
-      <c r="M35" s="9">
-        <v>50</v>
-      </c>
-      <c r="N35" s="9">
-        <v>150</v>
-      </c>
-      <c r="O35" s="9">
-        <v>80</v>
-      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -5315,27 +4962,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="9">
-        <v>5</v>
-      </c>
-      <c r="J36" s="9">
-        <v>45</v>
-      </c>
-      <c r="K36" s="9">
-        <v>60</v>
-      </c>
-      <c r="L36" s="9">
-        <v>90</v>
-      </c>
-      <c r="M36" s="9">
-        <v>60</v>
-      </c>
-      <c r="N36" s="9">
-        <v>55</v>
-      </c>
-      <c r="O36" s="9">
-        <v>60</v>
-      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -5370,24 +5003,12 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9">
-        <v>6</v>
-      </c>
-      <c r="K37" s="9">
-        <v>17</v>
-      </c>
-      <c r="L37" s="9">
-        <v>6</v>
-      </c>
-      <c r="M37" s="9">
-        <v>7</v>
-      </c>
-      <c r="N37" s="9">
-        <v>4</v>
-      </c>
-      <c r="O37" s="9">
-        <v>2</v>
-      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -5423,21 +5044,11 @@
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9">
-        <v>100</v>
-      </c>
-      <c r="L38" s="9">
-        <v>100</v>
-      </c>
-      <c r="M38" s="9">
-        <v>100</v>
-      </c>
-      <c r="N38" s="9">
-        <v>50</v>
-      </c>
-      <c r="O38" s="9">
-        <v>50</v>
-      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -5472,21 +5083,11 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9">
-        <v>22</v>
-      </c>
-      <c r="K39" s="9">
-        <v>30</v>
-      </c>
-      <c r="L39" s="9">
-        <v>18</v>
-      </c>
-      <c r="M39" s="9">
-        <v>8</v>
-      </c>
-      <c r="N39" s="9">
-        <v>2</v>
-      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -5522,24 +5123,12 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9">
-        <v>5</v>
-      </c>
-      <c r="K40" s="9">
-        <v>25</v>
-      </c>
-      <c r="L40" s="9">
-        <v>45</v>
-      </c>
-      <c r="M40" s="9">
-        <v>30</v>
-      </c>
-      <c r="N40" s="9">
-        <v>23</v>
-      </c>
-      <c r="O40" s="9">
-        <v>8</v>
-      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -5575,21 +5164,11 @@
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9">
-        <v>30</v>
-      </c>
-      <c r="L41" s="9">
-        <v>50</v>
-      </c>
-      <c r="M41" s="9">
-        <v>70</v>
-      </c>
-      <c r="N41" s="9">
-        <v>70</v>
-      </c>
-      <c r="O41" s="9">
-        <v>90</v>
-      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -5625,12 +5204,8 @@
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9">
-        <v>10</v>
-      </c>
-      <c r="L42" s="9">
-        <v>36</v>
-      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
@@ -5669,21 +5244,11 @@
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9">
-        <v>50</v>
-      </c>
-      <c r="L43" s="9">
-        <v>50</v>
-      </c>
-      <c r="M43" s="9">
-        <v>50</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>949</v>
-      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -5719,21 +5284,11 @@
       <c r="H44" s="8"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9">
-        <v>70</v>
-      </c>
-      <c r="L44" s="9">
-        <v>70</v>
-      </c>
-      <c r="M44" s="9">
-        <v>50</v>
-      </c>
-      <c r="N44" s="9">
-        <v>50</v>
-      </c>
-      <c r="O44" s="9">
-        <v>30</v>
-      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -5770,18 +5325,10 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="9">
-        <v>3</v>
-      </c>
-      <c r="M45" s="9">
-        <v>4</v>
-      </c>
-      <c r="N45" s="9">
-        <v>2</v>
-      </c>
-      <c r="O45" s="9">
-        <v>1</v>
-      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -5817,21 +5364,11 @@
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="9">
-        <v>30</v>
-      </c>
-      <c r="L46" s="9">
-        <v>70</v>
-      </c>
-      <c r="M46" s="9">
-        <v>50</v>
-      </c>
-      <c r="N46" s="9">
-        <v>48</v>
-      </c>
-      <c r="O46" s="9">
-        <v>44</v>
-      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -5867,18 +5404,10 @@
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="9">
-        <v>20</v>
-      </c>
-      <c r="L47" s="9">
-        <v>60</v>
-      </c>
-      <c r="M47" s="9">
-        <v>60</v>
-      </c>
-      <c r="N47" s="9">
-        <v>5</v>
-      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -5915,21 +5444,11 @@
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="9">
-        <v>12</v>
-      </c>
-      <c r="L48" s="9">
-        <v>20</v>
-      </c>
-      <c r="M48" s="9">
-        <v>22</v>
-      </c>
-      <c r="N48" s="9">
-        <v>15</v>
-      </c>
-      <c r="O48" s="9">
-        <v>12</v>
-      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -5963,27 +5482,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="9">
-        <v>5</v>
-      </c>
-      <c r="J49" s="9">
-        <v>20</v>
-      </c>
-      <c r="K49" s="9">
-        <v>26</v>
-      </c>
-      <c r="L49" s="9">
-        <v>30</v>
-      </c>
-      <c r="M49" s="9">
-        <v>24</v>
-      </c>
-      <c r="N49" s="9">
-        <v>6</v>
-      </c>
-      <c r="O49" s="9">
-        <v>5</v>
-      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -6019,21 +5524,11 @@
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="9">
-        <v>27</v>
-      </c>
-      <c r="L50" s="9">
-        <v>52</v>
-      </c>
-      <c r="M50" s="9">
-        <v>37</v>
-      </c>
-      <c r="N50" s="9">
-        <v>25</v>
-      </c>
-      <c r="O50" s="9">
-        <v>20</v>
-      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -6069,21 +5564,11 @@
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="10">
-        <v>33</v>
-      </c>
-      <c r="L51" s="10">
-        <v>64</v>
-      </c>
-      <c r="M51" s="10">
-        <v>53</v>
-      </c>
-      <c r="N51" s="10">
-        <v>74</v>
-      </c>
-      <c r="O51" s="10">
-        <v>23</v>
-      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
@@ -6117,27 +5602,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="10">
-        <v>0</v>
-      </c>
-      <c r="J52" s="10">
-        <v>1</v>
-      </c>
-      <c r="K52" s="10">
-        <v>29</v>
-      </c>
-      <c r="L52" s="10">
-        <v>106</v>
-      </c>
-      <c r="M52" s="10">
-        <v>75</v>
-      </c>
-      <c r="N52" s="10">
-        <v>68</v>
-      </c>
-      <c r="O52" s="10">
-        <v>21</v>
-      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -6172,21 +5643,11 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9">
-        <v>30</v>
-      </c>
-      <c r="K53" s="9">
-        <v>199</v>
-      </c>
-      <c r="L53" s="9">
-        <v>160</v>
-      </c>
-      <c r="M53" s="9">
-        <v>130</v>
-      </c>
-      <c r="N53" s="9">
-        <v>150</v>
-      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -6222,24 +5683,12 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9">
-        <v>8</v>
-      </c>
-      <c r="K54" s="9">
-        <v>30</v>
-      </c>
-      <c r="L54" s="9">
-        <v>20</v>
-      </c>
-      <c r="M54" s="9">
-        <v>15</v>
-      </c>
-      <c r="N54" s="9">
-        <v>15</v>
-      </c>
-      <c r="O54" s="9">
-        <v>10</v>
-      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -6276,18 +5725,10 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="9">
-        <v>30</v>
-      </c>
-      <c r="M55" s="9">
-        <v>30</v>
-      </c>
-      <c r="N55" s="9">
-        <v>30</v>
-      </c>
-      <c r="O55" s="9">
-        <v>30</v>
-      </c>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -6322,24 +5763,12 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="9">
-        <v>4</v>
-      </c>
-      <c r="K56" s="9">
-        <v>32</v>
-      </c>
-      <c r="L56" s="9">
-        <v>42</v>
-      </c>
-      <c r="M56" s="9">
-        <v>72</v>
-      </c>
-      <c r="N56" s="9">
-        <v>110</v>
-      </c>
-      <c r="O56" s="9">
-        <v>40</v>
-      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
@@ -6373,27 +5802,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-      <c r="J57" s="9">
-        <v>0</v>
-      </c>
-      <c r="K57" s="9">
-        <v>10</v>
-      </c>
-      <c r="L57" s="9">
-        <v>50</v>
-      </c>
-      <c r="M57" s="9">
-        <v>50</v>
-      </c>
-      <c r="N57" s="9">
-        <v>60</v>
-      </c>
-      <c r="O57" s="9">
-        <v>40</v>
-      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
@@ -6428,24 +5843,12 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9">
-        <v>5</v>
-      </c>
-      <c r="K58" s="9">
-        <v>65</v>
-      </c>
-      <c r="L58" s="9">
-        <v>65</v>
-      </c>
-      <c r="M58" s="9">
-        <v>50</v>
-      </c>
-      <c r="N58" s="9">
-        <v>50</v>
-      </c>
-      <c r="O58" s="9">
-        <v>0</v>
-      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -6481,21 +5884,11 @@
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="9">
-        <v>80</v>
-      </c>
-      <c r="L59" s="9">
-        <v>80</v>
-      </c>
-      <c r="M59" s="9">
-        <v>85</v>
-      </c>
-      <c r="N59" s="9">
-        <v>80</v>
-      </c>
-      <c r="O59" s="9">
-        <v>50</v>
-      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -6531,21 +5924,11 @@
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="9">
-        <v>54</v>
-      </c>
-      <c r="L60" s="9">
-        <v>184</v>
-      </c>
-      <c r="M60" s="9">
-        <v>77</v>
-      </c>
-      <c r="N60" s="9">
-        <v>74</v>
-      </c>
-      <c r="O60" s="9">
-        <v>71</v>
-      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -6581,15 +5964,9 @@
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="9">
-        <v>30</v>
-      </c>
-      <c r="L61" s="9">
-        <v>35</v>
-      </c>
-      <c r="M61" s="9">
-        <v>10</v>
-      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="4"/>
@@ -6625,27 +6002,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="9">
-        <v>2</v>
-      </c>
-      <c r="J62" s="9">
-        <v>10</v>
-      </c>
-      <c r="K62" s="9">
-        <v>10</v>
-      </c>
-      <c r="L62" s="9">
-        <v>15</v>
-      </c>
-      <c r="M62" s="9">
-        <v>10</v>
-      </c>
-      <c r="N62" s="9">
-        <v>24</v>
-      </c>
-      <c r="O62" s="9">
-        <v>20</v>
-      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -6681,21 +6044,11 @@
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="9">
-        <v>5</v>
-      </c>
-      <c r="L63" s="9">
-        <v>120</v>
-      </c>
-      <c r="M63" s="9">
-        <v>120</v>
-      </c>
-      <c r="N63" s="9">
-        <v>120</v>
-      </c>
-      <c r="O63" s="9">
-        <v>10</v>
-      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
@@ -6730,24 +6083,12 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="9">
-        <v>15</v>
-      </c>
-      <c r="K64" s="9">
-        <v>61</v>
-      </c>
-      <c r="L64" s="9">
-        <v>72</v>
-      </c>
-      <c r="M64" s="9">
-        <v>41</v>
-      </c>
-      <c r="N64" s="9">
-        <v>37</v>
-      </c>
-      <c r="O64" s="9">
-        <v>37</v>
-      </c>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
@@ -6783,21 +6124,11 @@
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="9">
-        <v>50</v>
-      </c>
-      <c r="L65" s="9">
-        <v>70</v>
-      </c>
-      <c r="M65" s="9">
-        <v>80</v>
-      </c>
-      <c r="N65" s="9">
-        <v>100</v>
-      </c>
-      <c r="O65" s="9">
-        <v>100</v>
-      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -6832,24 +6163,12 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="9">
-        <v>20</v>
-      </c>
-      <c r="K66" s="9">
-        <v>30</v>
-      </c>
-      <c r="L66" s="9">
-        <v>30</v>
-      </c>
-      <c r="M66" s="9">
-        <v>20</v>
-      </c>
-      <c r="N66" s="9">
-        <v>20</v>
-      </c>
-      <c r="O66" s="9">
-        <v>30</v>
-      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
@@ -6883,18 +6202,10 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
-      <c r="J67" s="9">
-        <v>70</v>
-      </c>
-      <c r="K67" s="9">
-        <v>80</v>
-      </c>
-      <c r="L67" s="9">
-        <v>51</v>
-      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
@@ -6932,24 +6243,12 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="9">
-        <v>5</v>
-      </c>
-      <c r="K68" s="9">
-        <v>5</v>
-      </c>
-      <c r="L68" s="9">
-        <v>70</v>
-      </c>
-      <c r="M68" s="9">
-        <v>56</v>
-      </c>
-      <c r="N68" s="9">
-        <v>47</v>
-      </c>
-      <c r="O68" s="9">
-        <v>20</v>
-      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
@@ -6984,24 +6283,12 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="9">
-        <v>5</v>
-      </c>
-      <c r="K69" s="9">
-        <v>50</v>
-      </c>
-      <c r="L69" s="9">
-        <v>50</v>
-      </c>
-      <c r="M69" s="9">
-        <v>50</v>
-      </c>
-      <c r="N69" s="9">
-        <v>50</v>
-      </c>
-      <c r="O69" s="9">
-        <v>50</v>
-      </c>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -7035,27 +6322,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="9">
-        <v>0</v>
-      </c>
-      <c r="J70" s="9">
-        <v>0</v>
-      </c>
-      <c r="K70" s="9">
-        <v>40</v>
-      </c>
-      <c r="L70" s="9">
-        <v>100</v>
-      </c>
-      <c r="M70" s="9">
-        <v>100</v>
-      </c>
-      <c r="N70" s="9">
-        <v>100</v>
-      </c>
-      <c r="O70" s="9">
-        <v>50</v>
-      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -7089,18 +6362,10 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="9">
-        <v>1</v>
-      </c>
-      <c r="J71" s="9">
-        <v>9</v>
-      </c>
-      <c r="K71" s="9">
-        <v>14</v>
-      </c>
-      <c r="L71" s="9">
-        <v>11</v>
-      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
@@ -7138,24 +6403,12 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9">
-        <v>4</v>
-      </c>
-      <c r="K72" s="9">
-        <v>30</v>
-      </c>
-      <c r="L72" s="9">
-        <v>60</v>
-      </c>
-      <c r="M72" s="9">
-        <v>63</v>
-      </c>
-      <c r="N72" s="9">
-        <v>53</v>
-      </c>
-      <c r="O72" s="9">
-        <v>10</v>
-      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
@@ -7190,18 +6443,10 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="9">
-        <v>25</v>
-      </c>
-      <c r="K73" s="9">
-        <v>50</v>
-      </c>
-      <c r="L73" s="9">
-        <v>50</v>
-      </c>
-      <c r="M73" s="9">
-        <v>80</v>
-      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="4"/>
@@ -7239,18 +6484,10 @@
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="9">
-        <v>34</v>
-      </c>
-      <c r="L74" s="9">
-        <v>46</v>
-      </c>
-      <c r="M74" s="9">
-        <v>80</v>
-      </c>
-      <c r="N74" s="9">
-        <v>10</v>
-      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
@@ -7287,21 +6524,11 @@
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="9">
-        <v>70</v>
-      </c>
-      <c r="L75" s="9">
-        <v>70</v>
-      </c>
-      <c r="M75" s="9">
-        <v>70</v>
-      </c>
-      <c r="N75" s="9">
-        <v>70</v>
-      </c>
-      <c r="O75" s="9">
-        <v>70</v>
-      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
@@ -7337,18 +6564,10 @@
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="9">
-        <v>2</v>
-      </c>
-      <c r="L76" s="9">
-        <v>3</v>
-      </c>
-      <c r="M76" s="9">
-        <v>3</v>
-      </c>
-      <c r="N76" s="9">
-        <v>2</v>
-      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
@@ -7385,18 +6604,10 @@
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="9">
-        <v>28</v>
-      </c>
-      <c r="L77" s="9">
-        <v>45</v>
-      </c>
-      <c r="M77" s="9">
-        <v>75</v>
-      </c>
-      <c r="N77" s="9">
-        <v>30</v>
-      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -7431,27 +6642,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="9">
-        <v>0</v>
-      </c>
-      <c r="J78" s="9">
-        <v>25</v>
-      </c>
-      <c r="K78" s="9">
-        <v>35</v>
-      </c>
-      <c r="L78" s="9">
-        <v>62</v>
-      </c>
-      <c r="M78" s="9">
-        <v>27</v>
-      </c>
-      <c r="N78" s="9">
-        <v>77</v>
-      </c>
-      <c r="O78" s="9">
-        <v>86</v>
-      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
@@ -7487,18 +6684,10 @@
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="9">
-        <v>10</v>
-      </c>
-      <c r="L79" s="9">
-        <v>60</v>
-      </c>
-      <c r="M79" s="9">
-        <v>40</v>
-      </c>
-      <c r="N79" s="9">
-        <v>10</v>
-      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
@@ -7534,24 +6723,12 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="9">
-        <v>2</v>
-      </c>
-      <c r="K80" s="9">
-        <v>11</v>
-      </c>
-      <c r="L80" s="9">
-        <v>14</v>
-      </c>
-      <c r="M80" s="9">
-        <v>23</v>
-      </c>
-      <c r="N80" s="9">
-        <v>15</v>
-      </c>
-      <c r="O80" s="9">
-        <v>12</v>
-      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -7585,24 +6762,12 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="K81" s="9">
-        <v>30</v>
-      </c>
-      <c r="L81" s="9">
-        <v>41</v>
-      </c>
-      <c r="M81" s="9">
-        <v>5</v>
-      </c>
-      <c r="N81" s="9">
-        <v>1</v>
-      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
@@ -7638,21 +6803,11 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="9">
-        <v>28</v>
-      </c>
-      <c r="K82" s="9">
-        <v>83</v>
-      </c>
-      <c r="L82" s="9">
-        <v>29</v>
-      </c>
-      <c r="M82" s="9">
-        <v>7</v>
-      </c>
-      <c r="N82" s="9">
-        <v>1</v>
-      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
@@ -7688,18 +6843,10 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="9">
-        <v>10</v>
-      </c>
-      <c r="K83" s="9">
-        <v>40</v>
-      </c>
-      <c r="L83" s="9">
-        <v>40</v>
-      </c>
-      <c r="M83" s="9">
-        <v>10</v>
-      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="4"/>
@@ -7736,18 +6883,10 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="9">
-        <v>50</v>
-      </c>
-      <c r="K84" s="9">
-        <v>60</v>
-      </c>
-      <c r="L84" s="9">
-        <v>80</v>
-      </c>
-      <c r="M84" s="9">
-        <v>30</v>
-      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="4"/>
@@ -7784,21 +6923,11 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="9">
-        <v>10</v>
-      </c>
-      <c r="K85" s="9">
-        <v>23</v>
-      </c>
-      <c r="L85" s="9">
-        <v>10</v>
-      </c>
-      <c r="M85" s="9">
-        <v>4</v>
-      </c>
-      <c r="N85" s="9">
-        <v>1</v>
-      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
@@ -7833,21 +6962,11 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="9">
-        <v>4</v>
-      </c>
-      <c r="J86" s="9">
-        <v>16</v>
-      </c>
-      <c r="K86" s="9">
-        <v>32</v>
-      </c>
-      <c r="L86" s="9">
-        <v>21</v>
-      </c>
-      <c r="M86" s="9">
-        <v>1</v>
-      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="4"/>
@@ -7885,12 +7004,8 @@
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="9">
-        <v>100</v>
-      </c>
-      <c r="L87" s="9">
-        <v>53</v>
-      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
@@ -7928,18 +7043,10 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="9">
-        <v>4</v>
-      </c>
-      <c r="K88" s="9">
-        <v>41</v>
-      </c>
-      <c r="L88" s="9">
-        <v>27</v>
-      </c>
-      <c r="M88" s="9">
-        <v>2</v>
-      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="4"/>
@@ -7976,15 +7083,9 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="9">
-        <v>28</v>
-      </c>
-      <c r="K89" s="9">
-        <v>30</v>
-      </c>
-      <c r="L89" s="9">
-        <v>10</v>
-      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
@@ -8022,18 +7123,10 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="9">
-        <v>15</v>
-      </c>
-      <c r="K90" s="9">
-        <v>40</v>
-      </c>
-      <c r="L90" s="9">
-        <v>40</v>
-      </c>
-      <c r="M90" s="9">
-        <v>5</v>
-      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="4"/>
@@ -8070,21 +7163,11 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="9">
-        <v>10</v>
-      </c>
-      <c r="K91" s="9">
-        <v>50</v>
-      </c>
-      <c r="L91" s="9">
-        <v>30</v>
-      </c>
-      <c r="M91" s="9">
-        <v>5</v>
-      </c>
-      <c r="N91" s="9">
-        <v>5</v>
-      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
@@ -8121,15 +7204,9 @@
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="9">
-        <v>9</v>
-      </c>
-      <c r="L92" s="9">
-        <v>7</v>
-      </c>
-      <c r="M92" s="9">
-        <v>1</v>
-      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="4"/>
@@ -8166,18 +7243,10 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="9">
-        <v>10</v>
-      </c>
-      <c r="K93" s="9">
-        <v>45</v>
-      </c>
-      <c r="L93" s="9">
-        <v>35</v>
-      </c>
-      <c r="M93" s="9">
-        <v>10</v>
-      </c>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="4"/>
@@ -8213,27 +7282,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="9">
-        <v>0</v>
-      </c>
-      <c r="J94" s="9">
-        <v>0</v>
-      </c>
-      <c r="K94" s="9">
-        <v>0</v>
-      </c>
-      <c r="L94" s="9">
-        <v>10</v>
-      </c>
-      <c r="M94" s="9">
-        <v>20</v>
-      </c>
-      <c r="N94" s="9">
-        <v>15</v>
-      </c>
-      <c r="O94" s="9">
-        <v>15</v>
-      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -8269,15 +7324,9 @@
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
-      <c r="K95" s="9">
-        <v>30</v>
-      </c>
-      <c r="L95" s="9">
-        <v>15</v>
-      </c>
-      <c r="M95" s="9">
-        <v>10</v>
-      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="P95" s="4"/>
@@ -8313,21 +7362,11 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="9">
-        <v>1</v>
-      </c>
-      <c r="J96" s="9">
-        <v>40</v>
-      </c>
-      <c r="K96" s="9">
-        <v>80</v>
-      </c>
-      <c r="L96" s="9">
-        <v>30</v>
-      </c>
-      <c r="M96" s="9">
-        <v>6</v>
-      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="4"/>
@@ -8364,15 +7403,9 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="9">
-        <v>18</v>
-      </c>
-      <c r="K97" s="9">
-        <v>16</v>
-      </c>
-      <c r="L97" s="9">
-        <v>2</v>
-      </c>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
@@ -8410,15 +7443,9 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="9">
-        <v>15</v>
-      </c>
-      <c r="K98" s="9">
-        <v>40</v>
-      </c>
-      <c r="L98" s="9">
-        <v>5</v>
-      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
@@ -8456,12 +7483,8 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="9">
-        <v>130</v>
-      </c>
-      <c r="K99" s="9">
-        <v>20</v>
-      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -8501,15 +7524,9 @@
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="9">
-        <v>40</v>
-      </c>
-      <c r="L100" s="9">
-        <v>28</v>
-      </c>
-      <c r="M100" s="9">
-        <v>7</v>
-      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
       <c r="P100" s="4"/>
@@ -8546,21 +7563,11 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="9">
-        <v>30</v>
-      </c>
-      <c r="K101" s="9">
-        <v>50</v>
-      </c>
-      <c r="L101" s="9">
-        <v>50</v>
-      </c>
-      <c r="M101" s="9">
-        <v>8</v>
-      </c>
-      <c r="N101" s="9">
-        <v>5</v>
-      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
       <c r="O101" s="9"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
@@ -8596,18 +7603,10 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="9">
-        <v>20</v>
-      </c>
-      <c r="K102" s="9">
-        <v>80</v>
-      </c>
-      <c r="L102" s="9">
-        <v>80</v>
-      </c>
-      <c r="M102" s="9">
-        <v>15</v>
-      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
       <c r="P102" s="4"/>
@@ -8644,21 +7643,11 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="9">
-        <v>10</v>
-      </c>
-      <c r="K103" s="9">
-        <v>60</v>
-      </c>
-      <c r="L103" s="9">
-        <v>80</v>
-      </c>
-      <c r="M103" s="9">
-        <v>10</v>
-      </c>
-      <c r="N103" s="9">
-        <v>5</v>
-      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
       <c r="O103" s="9"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
@@ -8694,15 +7683,9 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="9">
-        <v>30</v>
-      </c>
-      <c r="K104" s="9">
-        <v>60</v>
-      </c>
-      <c r="L104" s="9">
-        <v>3</v>
-      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
@@ -8741,15 +7724,9 @@
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="9">
-        <v>25</v>
-      </c>
-      <c r="L105" s="9">
-        <v>60</v>
-      </c>
-      <c r="M105" s="9">
-        <v>30</v>
-      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="4"/>
@@ -8785,24 +7762,12 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="9">
-        <v>2</v>
-      </c>
-      <c r="J106" s="9">
-        <v>25</v>
-      </c>
-      <c r="K106" s="9">
-        <v>30</v>
-      </c>
-      <c r="L106" s="9">
-        <v>25</v>
-      </c>
-      <c r="M106" s="9">
-        <v>5</v>
-      </c>
-      <c r="N106" s="9">
-        <v>2</v>
-      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
       <c r="O106" s="9"/>
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
@@ -8837,27 +7802,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-      <c r="J107" s="9">
-        <v>4</v>
-      </c>
-      <c r="K107" s="9">
-        <v>16</v>
-      </c>
-      <c r="L107" s="9">
-        <v>60</v>
-      </c>
-      <c r="M107" s="9">
-        <v>2</v>
-      </c>
-      <c r="N107" s="9">
-        <v>2</v>
-      </c>
-      <c r="O107" s="9">
-        <v>0</v>
-      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
@@ -8892,18 +7843,10 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="9">
-        <v>29</v>
-      </c>
-      <c r="K108" s="9">
-        <v>58</v>
-      </c>
-      <c r="L108" s="9">
-        <v>10</v>
-      </c>
-      <c r="M108" s="9">
-        <v>2</v>
-      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
       <c r="P108" s="4"/>
@@ -8940,24 +7883,12 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="9">
-        <v>35</v>
-      </c>
-      <c r="K109" s="9">
-        <v>50</v>
-      </c>
-      <c r="L109" s="9">
-        <v>10</v>
-      </c>
-      <c r="M109" s="9">
-        <v>2</v>
-      </c>
-      <c r="N109" s="9">
-        <v>1</v>
-      </c>
-      <c r="O109" s="9">
-        <v>3</v>
-      </c>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
@@ -8992,21 +7923,11 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="9">
-        <v>30</v>
-      </c>
-      <c r="K110" s="9">
-        <v>60</v>
-      </c>
-      <c r="L110" s="9">
-        <v>30</v>
-      </c>
-      <c r="M110" s="9">
-        <v>2</v>
-      </c>
-      <c r="N110" s="9">
-        <v>2</v>
-      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
       <c r="O110" s="9"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
@@ -9042,21 +7963,11 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="9">
-        <v>25</v>
-      </c>
-      <c r="K111" s="9">
-        <v>30</v>
-      </c>
-      <c r="L111" s="9">
-        <v>20</v>
-      </c>
-      <c r="M111" s="9">
-        <v>2</v>
-      </c>
-      <c r="N111" s="9">
-        <v>2</v>
-      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
       <c r="O111" s="9"/>
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
@@ -9092,21 +8003,11 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="9">
-        <v>25</v>
-      </c>
-      <c r="K112" s="9">
-        <v>30</v>
-      </c>
-      <c r="L112" s="9">
-        <v>20</v>
-      </c>
-      <c r="M112" s="9">
-        <v>2</v>
-      </c>
-      <c r="N112" s="9">
-        <v>2</v>
-      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
       <c r="O112" s="9"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
@@ -9145,9 +8046,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="9" t="s">
-        <v>947</v>
-      </c>
+      <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
       <c r="P113" s="4"/>
@@ -9184,21 +8083,11 @@
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="9">
-        <v>4</v>
-      </c>
-      <c r="K114" s="9">
-        <v>20</v>
-      </c>
-      <c r="L114" s="9">
-        <v>25</v>
-      </c>
-      <c r="M114" s="9">
-        <v>15</v>
-      </c>
-      <c r="N114" s="9">
-        <v>2</v>
-      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
       <c r="O114" s="9"/>
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
@@ -9234,18 +8123,10 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="9">
-        <v>5</v>
-      </c>
-      <c r="K115" s="9">
-        <v>25</v>
-      </c>
-      <c r="L115" s="9">
-        <v>25</v>
-      </c>
-      <c r="M115" s="9">
-        <v>10</v>
-      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="P115" s="4"/>
@@ -9282,18 +8163,10 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="9">
-        <v>5</v>
-      </c>
-      <c r="K116" s="9">
-        <v>45</v>
-      </c>
-      <c r="L116" s="9">
-        <v>40</v>
-      </c>
-      <c r="M116" s="9">
-        <v>4</v>
-      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="P116" s="4"/>
@@ -9331,12 +8204,8 @@
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="9">
-        <v>46</v>
-      </c>
-      <c r="L117" s="9">
-        <v>23</v>
-      </c>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
@@ -9374,21 +8243,11 @@
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="9">
-        <v>50</v>
-      </c>
-      <c r="K118" s="9">
-        <v>47</v>
-      </c>
-      <c r="L118" s="9">
-        <v>26</v>
-      </c>
-      <c r="M118" s="9">
-        <v>6</v>
-      </c>
-      <c r="N118" s="9">
-        <v>1</v>
-      </c>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
       <c r="O118" s="9"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
@@ -9424,18 +8283,10 @@
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="9">
-        <v>20</v>
-      </c>
-      <c r="K119" s="9">
-        <v>150</v>
-      </c>
-      <c r="L119" s="9">
-        <v>120</v>
-      </c>
-      <c r="M119" s="9">
-        <v>20</v>
-      </c>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
       <c r="P119" s="4"/>
@@ -9472,21 +8323,11 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="9">
-        <v>30</v>
-      </c>
-      <c r="K120" s="9">
-        <v>66</v>
-      </c>
-      <c r="L120" s="9">
-        <v>20</v>
-      </c>
-      <c r="M120" s="9">
-        <v>5</v>
-      </c>
-      <c r="N120" s="9">
-        <v>2</v>
-      </c>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
       <c r="O120" s="9"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
@@ -9523,15 +8364,9 @@
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
-      <c r="K121" s="9">
-        <v>90</v>
-      </c>
-      <c r="L121" s="9">
-        <v>90</v>
-      </c>
-      <c r="M121" s="9">
-        <v>5</v>
-      </c>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
       <c r="N121" s="9"/>
       <c r="O121" s="9"/>
       <c r="P121" s="4"/>
@@ -9568,15 +8403,9 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="9">
-        <v>5</v>
-      </c>
-      <c r="K122" s="9">
-        <v>24</v>
-      </c>
-      <c r="L122" s="9">
-        <v>5</v>
-      </c>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
@@ -9614,18 +8443,10 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="9">
-        <v>22</v>
-      </c>
-      <c r="K123" s="9">
-        <v>57</v>
-      </c>
-      <c r="L123" s="9">
-        <v>19</v>
-      </c>
-      <c r="M123" s="9">
-        <v>1</v>
-      </c>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
       <c r="P123" s="4"/>
@@ -9661,24 +8482,12 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="9">
-        <v>4</v>
-      </c>
-      <c r="J124" s="9">
-        <v>50</v>
-      </c>
-      <c r="K124" s="9">
-        <v>60</v>
-      </c>
-      <c r="L124" s="9">
-        <v>50</v>
-      </c>
-      <c r="M124" s="9">
-        <v>20</v>
-      </c>
-      <c r="N124" s="9">
-        <v>16</v>
-      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
@@ -9714,15 +8523,9 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="9">
-        <v>40</v>
-      </c>
-      <c r="K125" s="9">
-        <v>60</v>
-      </c>
-      <c r="L125" s="9">
-        <v>20</v>
-      </c>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
@@ -9760,24 +8563,12 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
-      <c r="J126" s="9">
-        <v>75</v>
-      </c>
-      <c r="K126" s="9">
-        <v>75</v>
-      </c>
-      <c r="L126" s="9">
-        <v>20</v>
-      </c>
-      <c r="M126" s="9">
-        <v>5</v>
-      </c>
-      <c r="N126" s="9">
-        <v>5</v>
-      </c>
-      <c r="O126" s="9">
-        <v>5</v>
-      </c>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
@@ -9811,24 +8602,12 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="9">
-        <v>3</v>
-      </c>
-      <c r="J127" s="9">
-        <v>40</v>
-      </c>
-      <c r="K127" s="9">
-        <v>53</v>
-      </c>
-      <c r="L127" s="9">
-        <v>13</v>
-      </c>
-      <c r="M127" s="9">
-        <v>3</v>
-      </c>
-      <c r="N127" s="9">
-        <v>1</v>
-      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
       <c r="O127" s="9"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
@@ -9864,24 +8643,12 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="9">
-        <v>30</v>
-      </c>
-      <c r="K128" s="9">
-        <v>90</v>
-      </c>
-      <c r="L128" s="9">
-        <v>54</v>
-      </c>
-      <c r="M128" s="9">
-        <v>7</v>
-      </c>
-      <c r="N128" s="9">
-        <v>3</v>
-      </c>
-      <c r="O128" s="9">
-        <v>1</v>
-      </c>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
@@ -9916,21 +8683,11 @@
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="9">
-        <v>12</v>
-      </c>
-      <c r="K129" s="9">
-        <v>60</v>
-      </c>
-      <c r="L129" s="9">
-        <v>50</v>
-      </c>
-      <c r="M129" s="9">
-        <v>10</v>
-      </c>
-      <c r="N129" s="9">
-        <v>2</v>
-      </c>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
       <c r="O129" s="9"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
@@ -9966,18 +8723,10 @@
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="9">
-        <v>15</v>
-      </c>
-      <c r="K130" s="9">
-        <v>150</v>
-      </c>
-      <c r="L130" s="9">
-        <v>30</v>
-      </c>
-      <c r="M130" s="9">
-        <v>5</v>
-      </c>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
       <c r="P130" s="4"/>
@@ -10015,15 +8764,9 @@
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
-      <c r="K131" s="9">
-        <v>35</v>
-      </c>
-      <c r="L131" s="9">
-        <v>25</v>
-      </c>
-      <c r="M131" s="9">
-        <v>5</v>
-      </c>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
       <c r="N131" s="9"/>
       <c r="O131" s="9"/>
       <c r="P131" s="4"/>
@@ -10059,27 +8802,13 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="9">
-        <v>0</v>
-      </c>
-      <c r="J132" s="9">
-        <v>6</v>
-      </c>
-      <c r="K132" s="9">
-        <v>48</v>
-      </c>
-      <c r="L132" s="9">
-        <v>20</v>
-      </c>
-      <c r="M132" s="9">
-        <v>3</v>
-      </c>
-      <c r="N132" s="9">
-        <v>0</v>
-      </c>
-      <c r="O132" s="9">
-        <v>0</v>
-      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
@@ -10115,18 +8844,10 @@
       <c r="H133" s="8"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="9">
-        <v>10</v>
-      </c>
-      <c r="L133" s="9">
-        <v>15</v>
-      </c>
-      <c r="M133" s="9">
-        <v>10</v>
-      </c>
-      <c r="N133" s="9">
-        <v>3</v>
-      </c>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
       <c r="O133" s="9"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
@@ -10161,24 +8882,12 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="9">
-        <v>26</v>
-      </c>
-      <c r="J134" s="9">
-        <v>66</v>
-      </c>
-      <c r="K134" s="9">
-        <v>70</v>
-      </c>
-      <c r="L134" s="9">
-        <v>50</v>
-      </c>
-      <c r="M134" s="9">
-        <v>10</v>
-      </c>
-      <c r="N134" s="9">
-        <v>2</v>
-      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
       <c r="O134" s="9"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
@@ -10214,18 +8923,10 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="9">
-        <v>20</v>
-      </c>
-      <c r="K135" s="9">
-        <v>60</v>
-      </c>
-      <c r="L135" s="9">
-        <v>50</v>
-      </c>
-      <c r="M135" s="9">
-        <v>20</v>
-      </c>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
       <c r="N135" s="9"/>
       <c r="O135" s="9"/>
       <c r="P135" s="4"/>
@@ -10262,22 +8963,12 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="9">
-        <v>44</v>
-      </c>
-      <c r="K136" s="9">
-        <v>45</v>
-      </c>
-      <c r="L136" s="9">
-        <v>30</v>
-      </c>
-      <c r="M136" s="9">
-        <v>5</v>
-      </c>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
       <c r="N136" s="9"/>
-      <c r="O136" s="9">
-        <v>1</v>
-      </c>
+      <c r="O136" s="9"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
@@ -10311,24 +9002,12 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="9">
-        <v>3</v>
-      </c>
-      <c r="J137" s="9">
-        <v>7</v>
-      </c>
-      <c r="K137" s="9">
-        <v>40</v>
-      </c>
-      <c r="L137" s="9">
-        <v>30</v>
-      </c>
-      <c r="M137" s="9">
-        <v>4</v>
-      </c>
-      <c r="N137" s="9">
-        <v>2</v>
-      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
       <c r="O137" s="9"/>
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
@@ -10364,22 +9043,12 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="9">
-        <v>10</v>
-      </c>
-      <c r="K138" s="9">
-        <v>20</v>
-      </c>
-      <c r="L138" s="9">
-        <v>20</v>
-      </c>
-      <c r="M138" s="9">
-        <v>3</v>
-      </c>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
       <c r="N138" s="9"/>
-      <c r="O138" s="9">
-        <v>1</v>
-      </c>
+      <c r="O138" s="9"/>
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
@@ -10414,24 +9083,12 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="9">
-        <v>20</v>
-      </c>
-      <c r="K139" s="9">
-        <v>115</v>
-      </c>
-      <c r="L139" s="9">
-        <v>115</v>
-      </c>
-      <c r="M139" s="9">
-        <v>6</v>
-      </c>
-      <c r="N139" s="9">
-        <v>6</v>
-      </c>
-      <c r="O139" s="9">
-        <v>4</v>
-      </c>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
@@ -10466,15 +9123,9 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="9">
-        <v>40</v>
-      </c>
-      <c r="K140" s="9">
-        <v>60</v>
-      </c>
-      <c r="L140" s="9">
-        <v>5</v>
-      </c>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
       <c r="O140" s="9"/>
@@ -10512,18 +9163,10 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="9">
-        <v>26</v>
-      </c>
-      <c r="K141" s="9">
-        <v>39</v>
-      </c>
-      <c r="L141" s="9">
-        <v>4</v>
-      </c>
-      <c r="M141" s="9">
-        <v>2</v>
-      </c>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
       <c r="N141" s="9"/>
       <c r="O141" s="9"/>
       <c r="P141" s="4"/>
@@ -10561,15 +9204,9 @@
       <c r="H142" s="8"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="9">
-        <v>25</v>
-      </c>
-      <c r="L142" s="9">
-        <v>35</v>
-      </c>
-      <c r="M142" s="9">
-        <v>2</v>
-      </c>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
       <c r="P142" s="4"/>
@@ -10607,18 +9244,10 @@
       <c r="H143" s="8"/>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
-      <c r="K143" s="9">
-        <v>75</v>
-      </c>
-      <c r="L143" s="9">
-        <v>100</v>
-      </c>
-      <c r="M143" s="9">
-        <v>150</v>
-      </c>
-      <c r="N143" s="9">
-        <v>100</v>
-      </c>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
       <c r="O143" s="9"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>

--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F60B0A-B109-4BB1-BB69-9CC34673EDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453E7D2-D0A4-4766-8123-08CA4DEE5F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -3470,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AB784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3589,26 +3589,24 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="9">
-        <v>2</v>
-      </c>
-      <c r="O2" s="9">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O2" s="9"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -3679,25 +3677,57 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="8">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8">
+        <v>12</v>
+      </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
+        <v>55</v>
+      </c>
+      <c r="K4" s="9">
+        <v>45</v>
+      </c>
+      <c r="L4" s="9">
+        <v>45</v>
+      </c>
+      <c r="M4" s="9">
+        <v>45</v>
+      </c>
+      <c r="N4" s="9">
+        <v>45</v>
+      </c>
       <c r="O4" s="9"/>
-      <c r="P4" s="4"/>
+      <c r="P4" s="4">
+        <v>21</v>
+      </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="R4" s="4">
+        <v>12</v>
+      </c>
+      <c r="S4" s="4">
+        <v>12</v>
+      </c>
+      <c r="T4" s="4">
+        <v>12</v>
+      </c>
+      <c r="U4" s="4">
+        <v>21</v>
+      </c>
+      <c r="V4" s="4">
+        <v>11</v>
+      </c>
+      <c r="W4" s="4">
+        <v>12</v>
+      </c>
+      <c r="X4" s="4">
+        <v>12</v>
+      </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>

--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453E7D2-D0A4-4766-8123-08CA4DEE5F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEB5CED-9999-4411-82F6-D34552A0A314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -3471,7 +3471,7 @@
   <dimension ref="A1:AB784"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4030,12 +4030,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="G12" s="8">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9">
+        <v>17</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>

--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ventura_project\ventura_project_backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4C229-4B9F-4815-AD82-9D75FA5E8149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB3E5C0-9543-49E6-AFBF-A28DDFC94AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="881">
   <si>
     <t>PROJETO</t>
   </si>
@@ -2668,15 +2668,6 @@
   </si>
   <si>
     <t>camiseta manga longa</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3293,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AB784"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3417,34 +3408,20 @@
         <v>20</v>
       </c>
       <c r="L2" s="18">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="M2" s="18">
-        <v>74</v>
-      </c>
-      <c r="N2" s="18">
-        <v>52</v>
-      </c>
-      <c r="O2" s="18">
-        <v>35</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="18">
-        <v>20</v>
-      </c>
-      <c r="S2" s="18">
-        <v>35</v>
-      </c>
-      <c r="T2" s="18">
-        <v>74</v>
-      </c>
-      <c r="U2" s="18">
-        <v>52</v>
-      </c>
-      <c r="V2" s="18">
-        <v>35</v>
-      </c>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -3474,33 +3451,17 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="18">
-        <v>60</v>
-      </c>
-      <c r="M3" s="18">
-        <v>40</v>
-      </c>
-      <c r="N3" s="18">
-        <v>60</v>
-      </c>
-      <c r="O3" s="18">
-        <v>50</v>
-      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
-      <c r="S3" s="18">
-        <v>60</v>
-      </c>
-      <c r="T3" s="18">
-        <v>40</v>
-      </c>
-      <c r="U3" s="18">
-        <v>60</v>
-      </c>
-      <c r="V3" s="18">
-        <v>50</v>
-      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -3529,38 +3490,18 @@
       <c r="H4" s="8"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="18">
-        <v>20</v>
-      </c>
-      <c r="L4" s="18">
-        <v>45</v>
-      </c>
-      <c r="M4" s="18">
-        <v>40</v>
-      </c>
-      <c r="N4" s="18">
-        <v>40</v>
-      </c>
-      <c r="O4" s="18">
-        <v>30</v>
-      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
-      <c r="R4" s="18">
-        <v>20</v>
-      </c>
-      <c r="S4" s="18">
-        <v>45</v>
-      </c>
-      <c r="T4" s="18">
-        <v>40</v>
-      </c>
-      <c r="U4" s="18">
-        <v>40</v>
-      </c>
-      <c r="V4" s="18">
-        <v>30</v>
-      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -3588,33 +3529,17 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="18">
-        <v>97</v>
-      </c>
-      <c r="K5" s="18">
-        <v>70</v>
-      </c>
-      <c r="L5" s="18">
-        <v>150</v>
-      </c>
-      <c r="M5" s="18">
-        <v>150</v>
-      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="18">
-        <v>97</v>
-      </c>
-      <c r="R5" s="18">
-        <v>70</v>
-      </c>
-      <c r="S5" s="18">
-        <v>150</v>
-      </c>
-      <c r="T5" s="18">
-        <v>150</v>
-      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="4"/>
@@ -3645,38 +3570,18 @@
       <c r="H6" s="8"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="18">
-        <v>1</v>
-      </c>
-      <c r="L6" s="18">
-        <v>1</v>
-      </c>
-      <c r="M6" s="18">
-        <v>8</v>
-      </c>
-      <c r="N6" s="18">
-        <v>3</v>
-      </c>
-      <c r="O6" s="18">
-        <v>2</v>
-      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="R6" s="18">
-        <v>1</v>
-      </c>
-      <c r="S6" s="18">
-        <v>1</v>
-      </c>
-      <c r="T6" s="18">
-        <v>8</v>
-      </c>
-      <c r="U6" s="18">
-        <v>3</v>
-      </c>
-      <c r="V6" s="18">
-        <v>2</v>
-      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -3704,43 +3609,19 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="18">
-        <v>20</v>
-      </c>
-      <c r="K7" s="18">
-        <v>30</v>
-      </c>
-      <c r="L7" s="18">
-        <v>30</v>
-      </c>
-      <c r="M7" s="18">
-        <v>30</v>
-      </c>
-      <c r="N7" s="18">
-        <v>30</v>
-      </c>
-      <c r="O7" s="18">
-        <v>30</v>
-      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="18">
-        <v>20</v>
-      </c>
-      <c r="R7" s="18">
-        <v>30</v>
-      </c>
-      <c r="S7" s="18">
-        <v>30</v>
-      </c>
-      <c r="T7" s="18">
-        <v>30</v>
-      </c>
-      <c r="U7" s="18">
-        <v>30</v>
-      </c>
-      <c r="V7" s="18">
-        <v>30</v>
-      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -3767,48 +3648,20 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
-        <v>6</v>
-      </c>
-      <c r="K8" s="18">
-        <v>10</v>
-      </c>
-      <c r="L8" s="18">
-        <v>20</v>
-      </c>
-      <c r="M8" s="18">
-        <v>12</v>
-      </c>
-      <c r="N8" s="18">
-        <v>10</v>
-      </c>
-      <c r="O8" s="18">
-        <v>7</v>
-      </c>
-      <c r="P8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>6</v>
-      </c>
-      <c r="R8" s="18">
-        <v>10</v>
-      </c>
-      <c r="S8" s="18">
-        <v>20</v>
-      </c>
-      <c r="T8" s="18">
-        <v>12</v>
-      </c>
-      <c r="U8" s="18">
-        <v>10</v>
-      </c>
-      <c r="V8" s="18">
-        <v>7</v>
-      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -3836,43 +3689,19 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="18">
-        <v>50</v>
-      </c>
-      <c r="L9" s="18">
-        <v>50</v>
-      </c>
-      <c r="M9" s="18">
-        <v>50</v>
-      </c>
-      <c r="N9" s="18">
-        <v>50</v>
-      </c>
-      <c r="O9" s="18">
-        <v>50</v>
-      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
       <c r="P9" s="17"/>
-      <c r="Q9" s="18">
-        <v>1</v>
-      </c>
-      <c r="R9" s="18">
-        <v>50</v>
-      </c>
-      <c r="S9" s="18">
-        <v>50</v>
-      </c>
-      <c r="T9" s="18">
-        <v>50</v>
-      </c>
-      <c r="U9" s="18">
-        <v>50</v>
-      </c>
-      <c r="V9" s="18">
-        <v>50</v>
-      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -3901,38 +3730,18 @@
       <c r="H10" s="8"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="18">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17">
-        <v>60</v>
-      </c>
-      <c r="M10" s="18">
-        <v>40</v>
-      </c>
-      <c r="N10" s="18">
-        <v>40</v>
-      </c>
-      <c r="O10" s="18">
-        <v>15</v>
-      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
-      <c r="R10" s="18">
-        <v>25</v>
-      </c>
-      <c r="S10" s="17">
-        <v>60</v>
-      </c>
-      <c r="T10" s="18">
-        <v>40</v>
-      </c>
-      <c r="U10" s="18">
-        <v>40</v>
-      </c>
-      <c r="V10" s="18">
-        <v>15</v>
-      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -3959,33 +3768,17 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>41</v>
-      </c>
-      <c r="L11" s="18">
-        <v>14</v>
-      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
-      <c r="P11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>0</v>
-      </c>
-      <c r="R11" s="18">
-        <v>41</v>
-      </c>
-      <c r="S11" s="18">
-        <v>14</v>
-      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
@@ -4016,43 +3809,19 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="18">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18">
-        <v>31</v>
-      </c>
-      <c r="L12" s="18">
-        <v>60</v>
-      </c>
-      <c r="M12" s="18">
-        <v>57</v>
-      </c>
-      <c r="N12" s="18">
-        <v>34</v>
-      </c>
-      <c r="O12" s="18">
-        <v>15</v>
-      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="18">
-        <v>1</v>
-      </c>
-      <c r="R12" s="18">
-        <v>31</v>
-      </c>
-      <c r="S12" s="18">
-        <v>60</v>
-      </c>
-      <c r="T12" s="18">
-        <v>57</v>
-      </c>
-      <c r="U12" s="18">
-        <v>34</v>
-      </c>
-      <c r="V12" s="18">
-        <v>15</v>
-      </c>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -4081,38 +3850,18 @@
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="18">
-        <v>40</v>
-      </c>
-      <c r="L13" s="18">
-        <v>90</v>
-      </c>
-      <c r="M13" s="18">
-        <v>90</v>
-      </c>
-      <c r="N13" s="18">
-        <v>90</v>
-      </c>
-      <c r="O13" s="18">
-        <v>90</v>
-      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="18">
-        <v>40</v>
-      </c>
-      <c r="S13" s="18">
-        <v>90</v>
-      </c>
-      <c r="T13" s="18">
-        <v>90</v>
-      </c>
-      <c r="U13" s="18">
-        <v>90</v>
-      </c>
-      <c r="V13" s="18">
-        <v>90</v>
-      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -4141,33 +3890,17 @@
       <c r="H14" s="8"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="18">
-        <v>24</v>
-      </c>
-      <c r="L14" s="18">
-        <v>70</v>
-      </c>
-      <c r="M14" s="18">
-        <v>40</v>
-      </c>
-      <c r="N14" s="18">
-        <v>75</v>
-      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="18">
-        <v>24</v>
-      </c>
-      <c r="S14" s="18">
-        <v>70</v>
-      </c>
-      <c r="T14" s="18">
-        <v>40</v>
-      </c>
-      <c r="U14" s="18">
-        <v>75</v>
-      </c>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="17"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -4195,48 +3928,20 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="J15" s="18">
-        <v>40</v>
-      </c>
-      <c r="K15" s="18">
-        <v>80</v>
-      </c>
-      <c r="L15" s="18">
-        <v>80</v>
-      </c>
-      <c r="M15" s="18">
-        <v>100</v>
-      </c>
-      <c r="N15" s="19">
-        <v>0</v>
-      </c>
-      <c r="O15" s="19">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>40</v>
-      </c>
-      <c r="R15" s="18">
-        <v>80</v>
-      </c>
-      <c r="S15" s="18">
-        <v>80</v>
-      </c>
-      <c r="T15" s="18">
-        <v>100</v>
-      </c>
-      <c r="U15" s="19">
-        <v>0</v>
-      </c>
-      <c r="V15" s="19">
-        <v>0</v>
-      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -4264,43 +3969,19 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="18">
-        <v>2</v>
-      </c>
-      <c r="K16" s="18">
-        <v>28</v>
-      </c>
-      <c r="L16" s="18">
-        <v>45</v>
-      </c>
-      <c r="M16" s="18">
-        <v>45</v>
-      </c>
-      <c r="N16" s="18">
-        <v>20</v>
-      </c>
-      <c r="O16" s="18">
-        <v>20</v>
-      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="18">
-        <v>2</v>
-      </c>
-      <c r="R16" s="18">
-        <v>28</v>
-      </c>
-      <c r="S16" s="18">
-        <v>45</v>
-      </c>
-      <c r="T16" s="18">
-        <v>45</v>
-      </c>
-      <c r="U16" s="18">
-        <v>20</v>
-      </c>
-      <c r="V16" s="18">
-        <v>20</v>
-      </c>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -4329,38 +4010,18 @@
       <c r="H17" s="8"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="18">
-        <v>40</v>
-      </c>
-      <c r="L17" s="18">
-        <v>100</v>
-      </c>
-      <c r="M17" s="18">
-        <v>65</v>
-      </c>
-      <c r="N17" s="18">
-        <v>30</v>
-      </c>
-      <c r="O17" s="18">
-        <v>15</v>
-      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="18">
-        <v>40</v>
-      </c>
-      <c r="S17" s="18">
-        <v>100</v>
-      </c>
-      <c r="T17" s="18">
-        <v>65</v>
-      </c>
-      <c r="U17" s="18">
-        <v>30</v>
-      </c>
-      <c r="V17" s="18">
-        <v>15</v>
-      </c>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -4387,48 +4048,20 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="K18" s="18">
-        <v>70</v>
-      </c>
-      <c r="L18" s="18">
-        <v>30</v>
-      </c>
-      <c r="M18" s="18">
-        <v>30</v>
-      </c>
-      <c r="N18" s="18">
-        <v>5</v>
-      </c>
-      <c r="O18" s="18">
-        <v>10</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="R18" s="18">
-        <v>70</v>
-      </c>
-      <c r="S18" s="18">
-        <v>30</v>
-      </c>
-      <c r="T18" s="18">
-        <v>30</v>
-      </c>
-      <c r="U18" s="18">
-        <v>5</v>
-      </c>
-      <c r="V18" s="18">
-        <v>10</v>
-      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -4456,43 +4089,19 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="18">
-        <v>2</v>
-      </c>
-      <c r="K19" s="18">
-        <v>20</v>
-      </c>
-      <c r="L19" s="18">
-        <v>30</v>
-      </c>
-      <c r="M19" s="18">
-        <v>30</v>
-      </c>
-      <c r="N19" s="18">
-        <v>50</v>
-      </c>
-      <c r="O19" s="18">
-        <v>50</v>
-      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
       <c r="P19" s="17"/>
-      <c r="Q19" s="18">
-        <v>2</v>
-      </c>
-      <c r="R19" s="18">
-        <v>20</v>
-      </c>
-      <c r="S19" s="18">
-        <v>30</v>
-      </c>
-      <c r="T19" s="18">
-        <v>30</v>
-      </c>
-      <c r="U19" s="18">
-        <v>50</v>
-      </c>
-      <c r="V19" s="18">
-        <v>50</v>
-      </c>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -4521,28 +4130,16 @@
       <c r="H20" s="8"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="18">
-        <v>50</v>
-      </c>
-      <c r="L20" s="18">
-        <v>90</v>
-      </c>
-      <c r="M20" s="18">
-        <v>80</v>
-      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="18">
-        <v>50</v>
-      </c>
-      <c r="S20" s="18">
-        <v>90</v>
-      </c>
-      <c r="T20" s="18">
-        <v>80</v>
-      </c>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
       <c r="W20" s="4"/>
@@ -4573,38 +4170,18 @@
       <c r="H21" s="8"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="18">
-        <v>40</v>
-      </c>
-      <c r="L21" s="18">
-        <v>90</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="19">
-        <v>0</v>
-      </c>
-      <c r="O21" s="19">
-        <v>0</v>
-      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="18">
-        <v>40</v>
-      </c>
-      <c r="S21" s="18">
-        <v>90</v>
-      </c>
-      <c r="T21" s="19">
-        <v>0</v>
-      </c>
-      <c r="U21" s="19">
-        <v>0</v>
-      </c>
-      <c r="V21" s="19">
-        <v>0</v>
-      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -4631,48 +4208,20 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="K22" s="18">
-        <v>32</v>
-      </c>
-      <c r="L22" s="18">
-        <v>78</v>
-      </c>
-      <c r="M22" s="18">
-        <v>88</v>
-      </c>
-      <c r="N22" s="18">
-        <v>78</v>
-      </c>
-      <c r="O22" s="18">
-        <v>78</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="R22" s="18">
-        <v>32</v>
-      </c>
-      <c r="S22" s="18">
-        <v>78</v>
-      </c>
-      <c r="T22" s="18">
-        <v>88</v>
-      </c>
-      <c r="U22" s="18">
-        <v>78</v>
-      </c>
-      <c r="V22" s="18">
-        <v>78</v>
-      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -4700,43 +4249,19 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="18">
-        <v>20</v>
-      </c>
-      <c r="K23" s="18">
-        <v>90</v>
-      </c>
-      <c r="L23" s="18">
-        <v>100</v>
-      </c>
-      <c r="M23" s="18">
-        <v>60</v>
-      </c>
-      <c r="N23" s="18">
-        <v>40</v>
-      </c>
-      <c r="O23" s="18">
-        <v>20</v>
-      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="18">
-        <v>20</v>
-      </c>
-      <c r="R23" s="18">
-        <v>90</v>
-      </c>
-      <c r="S23" s="18">
-        <v>100</v>
-      </c>
-      <c r="T23" s="18">
-        <v>60</v>
-      </c>
-      <c r="U23" s="18">
-        <v>40</v>
-      </c>
-      <c r="V23" s="18">
-        <v>20</v>
-      </c>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -4764,43 +4289,19 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="18">
-        <v>10</v>
-      </c>
-      <c r="K24" s="18">
-        <v>50</v>
-      </c>
-      <c r="L24" s="18">
-        <v>60</v>
-      </c>
-      <c r="M24" s="18">
-        <v>80</v>
-      </c>
-      <c r="N24" s="18">
-        <v>80</v>
-      </c>
-      <c r="O24" s="18">
-        <v>70</v>
-      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="18">
-        <v>10</v>
-      </c>
-      <c r="R24" s="18">
-        <v>50</v>
-      </c>
-      <c r="S24" s="18">
-        <v>60</v>
-      </c>
-      <c r="T24" s="18">
-        <v>80</v>
-      </c>
-      <c r="U24" s="18">
-        <v>80</v>
-      </c>
-      <c r="V24" s="18">
-        <v>70</v>
-      </c>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
@@ -4829,38 +4330,18 @@
       <c r="H25" s="8"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="18">
-        <v>5</v>
-      </c>
-      <c r="L25" s="18">
-        <v>9</v>
-      </c>
-      <c r="M25" s="18">
-        <v>9</v>
-      </c>
-      <c r="N25" s="18">
-        <v>7</v>
-      </c>
-      <c r="O25" s="18">
-        <v>5</v>
-      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="18">
-        <v>5</v>
-      </c>
-      <c r="S25" s="18">
-        <v>9</v>
-      </c>
-      <c r="T25" s="18">
-        <v>9</v>
-      </c>
-      <c r="U25" s="18">
-        <v>7</v>
-      </c>
-      <c r="V25" s="18">
-        <v>5</v>
-      </c>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -4889,38 +4370,18 @@
       <c r="H26" s="8"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="18">
-        <v>4</v>
-      </c>
-      <c r="L26" s="18">
-        <v>3</v>
-      </c>
-      <c r="M26" s="18">
-        <v>7</v>
-      </c>
-      <c r="N26" s="18">
-        <v>5</v>
-      </c>
-      <c r="O26" s="18">
-        <v>1</v>
-      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="18">
-        <v>4</v>
-      </c>
-      <c r="S26" s="18">
-        <v>3</v>
-      </c>
-      <c r="T26" s="18">
-        <v>7</v>
-      </c>
-      <c r="U26" s="18">
-        <v>5</v>
-      </c>
-      <c r="V26" s="18">
-        <v>1</v>
-      </c>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -4948,43 +4409,19 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="18">
-        <v>20</v>
-      </c>
-      <c r="K27" s="18">
-        <v>30</v>
-      </c>
-      <c r="L27" s="18">
-        <v>30</v>
-      </c>
-      <c r="M27" s="18">
-        <v>35</v>
-      </c>
-      <c r="N27" s="18">
-        <v>35</v>
-      </c>
-      <c r="O27" s="18">
-        <v>5</v>
-      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="18">
-        <v>20</v>
-      </c>
-      <c r="R27" s="18">
-        <v>30</v>
-      </c>
-      <c r="S27" s="18">
-        <v>30</v>
-      </c>
-      <c r="T27" s="18">
-        <v>35</v>
-      </c>
-      <c r="U27" s="18">
-        <v>35</v>
-      </c>
-      <c r="V27" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -5013,33 +4450,17 @@
       <c r="H28" s="8"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="18">
-        <v>12</v>
-      </c>
-      <c r="L28" s="18">
-        <v>9</v>
-      </c>
-      <c r="M28" s="18">
-        <v>10</v>
-      </c>
-      <c r="N28" s="18">
-        <v>10</v>
-      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="18">
-        <v>12</v>
-      </c>
-      <c r="S28" s="18">
-        <v>9</v>
-      </c>
-      <c r="T28" s="18">
-        <v>10</v>
-      </c>
-      <c r="U28" s="18">
-        <v>10</v>
-      </c>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="17"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -5068,43 +4489,19 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="18">
-        <v>2</v>
-      </c>
-      <c r="K29" s="18">
-        <v>10</v>
-      </c>
-      <c r="L29" s="18">
-        <v>15</v>
-      </c>
-      <c r="M29" s="18">
-        <v>12</v>
-      </c>
-      <c r="N29" s="18">
-        <v>16</v>
-      </c>
-      <c r="O29" s="18">
-        <v>7</v>
-      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="18">
-        <v>2</v>
-      </c>
-      <c r="R29" s="18">
-        <v>10</v>
-      </c>
-      <c r="S29" s="18">
-        <v>15</v>
-      </c>
-      <c r="T29" s="18">
-        <v>12</v>
-      </c>
-      <c r="U29" s="18">
-        <v>16</v>
-      </c>
-      <c r="V29" s="18">
-        <v>7</v>
-      </c>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -5133,38 +4530,18 @@
       <c r="H30" s="8"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="18">
-        <v>60</v>
-      </c>
-      <c r="L30" s="18">
-        <v>70</v>
-      </c>
-      <c r="M30" s="18">
-        <v>74</v>
-      </c>
-      <c r="N30" s="18">
-        <v>40</v>
-      </c>
-      <c r="O30" s="18">
-        <v>12</v>
-      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
-      <c r="R30" s="18">
-        <v>60</v>
-      </c>
-      <c r="S30" s="18">
-        <v>70</v>
-      </c>
-      <c r="T30" s="18">
-        <v>74</v>
-      </c>
-      <c r="U30" s="18">
-        <v>40</v>
-      </c>
-      <c r="V30" s="18">
-        <v>12</v>
-      </c>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -5193,38 +4570,18 @@
       <c r="H31" s="8"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="18">
-        <v>100</v>
-      </c>
-      <c r="L31" s="18">
-        <v>100</v>
-      </c>
-      <c r="M31" s="18">
-        <v>100</v>
-      </c>
-      <c r="N31" s="18">
-        <v>100</v>
-      </c>
-      <c r="O31" s="18">
-        <v>100</v>
-      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="18">
-        <v>100</v>
-      </c>
-      <c r="S31" s="18">
-        <v>100</v>
-      </c>
-      <c r="T31" s="18">
-        <v>100</v>
-      </c>
-      <c r="U31" s="18">
-        <v>100</v>
-      </c>
-      <c r="V31" s="18">
-        <v>100</v>
-      </c>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -5253,38 +4610,18 @@
       <c r="H32" s="8"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="18">
-        <v>12</v>
-      </c>
-      <c r="L32" s="18">
-        <v>10</v>
-      </c>
-      <c r="M32" s="18">
-        <v>6</v>
-      </c>
-      <c r="N32" s="18">
-        <v>13</v>
-      </c>
-      <c r="O32" s="18">
-        <v>6</v>
-      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
-      <c r="R32" s="18">
-        <v>12</v>
-      </c>
-      <c r="S32" s="18">
-        <v>10</v>
-      </c>
-      <c r="T32" s="18">
-        <v>6</v>
-      </c>
-      <c r="U32" s="18">
-        <v>13</v>
-      </c>
-      <c r="V32" s="18">
-        <v>6</v>
-      </c>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
@@ -5313,28 +4650,16 @@
       <c r="H33" s="8"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="18">
-        <v>25</v>
-      </c>
-      <c r="L33" s="18">
-        <v>50</v>
-      </c>
-      <c r="M33" s="18">
-        <v>60</v>
-      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="18">
-        <v>25</v>
-      </c>
-      <c r="S33" s="18">
-        <v>50</v>
-      </c>
-      <c r="T33" s="18">
-        <v>60</v>
-      </c>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
       <c r="W33" s="4"/>
@@ -5364,43 +4689,19 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="18">
-        <v>5</v>
-      </c>
-      <c r="K34" s="18">
-        <v>68</v>
-      </c>
-      <c r="L34" s="18">
-        <v>133</v>
-      </c>
-      <c r="M34" s="18">
-        <v>90</v>
-      </c>
-      <c r="N34" s="18">
-        <v>45</v>
-      </c>
-      <c r="O34" s="18">
-        <v>35</v>
-      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
       <c r="P34" s="17"/>
-      <c r="Q34" s="18">
-        <v>5</v>
-      </c>
-      <c r="R34" s="18">
-        <v>68</v>
-      </c>
-      <c r="S34" s="18">
-        <v>133</v>
-      </c>
-      <c r="T34" s="18">
-        <v>90</v>
-      </c>
-      <c r="U34" s="18">
-        <v>45</v>
-      </c>
-      <c r="V34" s="18">
-        <v>35</v>
-      </c>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
@@ -5429,38 +4730,18 @@
       <c r="H35" s="8"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="18">
-        <v>20</v>
-      </c>
-      <c r="L35" s="18">
-        <v>35</v>
-      </c>
-      <c r="M35" s="18">
-        <v>50</v>
-      </c>
-      <c r="N35" s="18">
-        <v>150</v>
-      </c>
-      <c r="O35" s="18">
-        <v>80</v>
-      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="18">
-        <v>20</v>
-      </c>
-      <c r="S35" s="18">
-        <v>35</v>
-      </c>
-      <c r="T35" s="18">
-        <v>50</v>
-      </c>
-      <c r="U35" s="18">
-        <v>150</v>
-      </c>
-      <c r="V35" s="18">
-        <v>80</v>
-      </c>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -5487,48 +4768,20 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="18">
-        <v>5</v>
-      </c>
-      <c r="J36" s="18">
-        <v>45</v>
-      </c>
-      <c r="K36" s="18">
-        <v>60</v>
-      </c>
-      <c r="L36" s="18">
-        <v>90</v>
-      </c>
-      <c r="M36" s="18">
-        <v>60</v>
-      </c>
-      <c r="N36" s="18">
-        <v>55</v>
-      </c>
-      <c r="O36" s="18">
-        <v>60</v>
-      </c>
-      <c r="P36" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="18">
-        <v>45</v>
-      </c>
-      <c r="R36" s="18">
-        <v>60</v>
-      </c>
-      <c r="S36" s="18">
-        <v>90</v>
-      </c>
-      <c r="T36" s="18">
-        <v>60</v>
-      </c>
-      <c r="U36" s="18">
-        <v>55</v>
-      </c>
-      <c r="V36" s="18">
-        <v>60</v>
-      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
@@ -5556,43 +4809,19 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="18">
-        <v>6</v>
-      </c>
-      <c r="K37" s="18">
-        <v>17</v>
-      </c>
-      <c r="L37" s="18">
-        <v>6</v>
-      </c>
-      <c r="M37" s="18">
-        <v>7</v>
-      </c>
-      <c r="N37" s="18">
-        <v>4</v>
-      </c>
-      <c r="O37" s="18">
-        <v>2</v>
-      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
       <c r="P37" s="17"/>
-      <c r="Q37" s="18">
-        <v>6</v>
-      </c>
-      <c r="R37" s="18">
-        <v>17</v>
-      </c>
-      <c r="S37" s="18">
-        <v>6</v>
-      </c>
-      <c r="T37" s="18">
-        <v>7</v>
-      </c>
-      <c r="U37" s="18">
-        <v>4</v>
-      </c>
-      <c r="V37" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
@@ -5621,38 +4850,18 @@
       <c r="H38" s="8"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="18">
-        <v>100</v>
-      </c>
-      <c r="L38" s="18">
-        <v>100</v>
-      </c>
-      <c r="M38" s="18">
-        <v>100</v>
-      </c>
-      <c r="N38" s="18">
-        <v>50</v>
-      </c>
-      <c r="O38" s="18">
-        <v>50</v>
-      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="18">
-        <v>100</v>
-      </c>
-      <c r="S38" s="18">
-        <v>100</v>
-      </c>
-      <c r="T38" s="18">
-        <v>100</v>
-      </c>
-      <c r="U38" s="18">
-        <v>50</v>
-      </c>
-      <c r="V38" s="18">
-        <v>50</v>
-      </c>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
@@ -5680,38 +4889,18 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="18">
-        <v>22</v>
-      </c>
-      <c r="K39" s="18">
-        <v>30</v>
-      </c>
-      <c r="L39" s="18">
-        <v>18</v>
-      </c>
-      <c r="M39" s="18">
-        <v>8</v>
-      </c>
-      <c r="N39" s="18">
-        <v>2</v>
-      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
-      <c r="Q39" s="18">
-        <v>22</v>
-      </c>
-      <c r="R39" s="18">
-        <v>30</v>
-      </c>
-      <c r="S39" s="18">
-        <v>18</v>
-      </c>
-      <c r="T39" s="18">
-        <v>8</v>
-      </c>
-      <c r="U39" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
       <c r="V39" s="17"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -5740,43 +4929,19 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="18">
-        <v>5</v>
-      </c>
-      <c r="K40" s="18">
-        <v>25</v>
-      </c>
-      <c r="L40" s="18">
-        <v>45</v>
-      </c>
-      <c r="M40" s="18">
-        <v>30</v>
-      </c>
-      <c r="N40" s="18">
-        <v>23</v>
-      </c>
-      <c r="O40" s="18">
-        <v>8</v>
-      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
       <c r="P40" s="17"/>
-      <c r="Q40" s="18">
-        <v>5</v>
-      </c>
-      <c r="R40" s="18">
-        <v>25</v>
-      </c>
-      <c r="S40" s="18">
-        <v>45</v>
-      </c>
-      <c r="T40" s="18">
-        <v>30</v>
-      </c>
-      <c r="U40" s="18">
-        <v>23</v>
-      </c>
-      <c r="V40" s="18">
-        <v>8</v>
-      </c>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
@@ -5805,38 +4970,18 @@
       <c r="H41" s="8"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
-      <c r="K41" s="18">
-        <v>30</v>
-      </c>
-      <c r="L41" s="18">
-        <v>50</v>
-      </c>
-      <c r="M41" s="18">
-        <v>70</v>
-      </c>
-      <c r="N41" s="18">
-        <v>70</v>
-      </c>
-      <c r="O41" s="18">
-        <v>90</v>
-      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="18">
-        <v>30</v>
-      </c>
-      <c r="S41" s="18">
-        <v>50</v>
-      </c>
-      <c r="T41" s="18">
-        <v>70</v>
-      </c>
-      <c r="U41" s="18">
-        <v>70</v>
-      </c>
-      <c r="V41" s="18">
-        <v>90</v>
-      </c>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
@@ -5865,23 +5010,15 @@
       <c r="H42" s="8"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
-      <c r="K42" s="18">
-        <v>10</v>
-      </c>
-      <c r="L42" s="18">
-        <v>36</v>
-      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
-      <c r="R42" s="18">
-        <v>10</v>
-      </c>
-      <c r="S42" s="18">
-        <v>36</v>
-      </c>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
       <c r="T42" s="17"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
@@ -5913,38 +5050,18 @@
       <c r="H43" s="8"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="18">
-        <v>50</v>
-      </c>
-      <c r="L43" s="18">
-        <v>50</v>
-      </c>
-      <c r="M43" s="18">
-        <v>50</v>
-      </c>
-      <c r="N43" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>883</v>
-      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
-      <c r="R43" s="18">
-        <v>50</v>
-      </c>
-      <c r="S43" s="18">
-        <v>50</v>
-      </c>
-      <c r="T43" s="18">
-        <v>50</v>
-      </c>
-      <c r="U43" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="V43" s="20" t="s">
-        <v>883</v>
-      </c>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
@@ -5973,38 +5090,18 @@
       <c r="H44" s="8"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
-      <c r="K44" s="18">
-        <v>70</v>
-      </c>
-      <c r="L44" s="18">
-        <v>70</v>
-      </c>
-      <c r="M44" s="18">
-        <v>50</v>
-      </c>
-      <c r="N44" s="18">
-        <v>50</v>
-      </c>
-      <c r="O44" s="18">
-        <v>30</v>
-      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
-      <c r="R44" s="18">
-        <v>70</v>
-      </c>
-      <c r="S44" s="18">
-        <v>70</v>
-      </c>
-      <c r="T44" s="18">
-        <v>50</v>
-      </c>
-      <c r="U44" s="18">
-        <v>50</v>
-      </c>
-      <c r="V44" s="18">
-        <v>30</v>
-      </c>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
@@ -6034,33 +5131,17 @@
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
-      <c r="L45" s="18">
-        <v>3</v>
-      </c>
-      <c r="M45" s="18">
-        <v>4</v>
-      </c>
-      <c r="N45" s="18">
-        <v>2</v>
-      </c>
-      <c r="O45" s="18">
-        <v>1</v>
-      </c>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
-      <c r="S45" s="18">
-        <v>3</v>
-      </c>
-      <c r="T45" s="18">
-        <v>4</v>
-      </c>
-      <c r="U45" s="18">
-        <v>2</v>
-      </c>
-      <c r="V45" s="18">
-        <v>1</v>
-      </c>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
@@ -6089,38 +5170,18 @@
       <c r="H46" s="8"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="18">
-        <v>30</v>
-      </c>
-      <c r="L46" s="18">
-        <v>70</v>
-      </c>
-      <c r="M46" s="18">
-        <v>50</v>
-      </c>
-      <c r="N46" s="18">
-        <v>48</v>
-      </c>
-      <c r="O46" s="18">
-        <v>44</v>
-      </c>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
-      <c r="R46" s="18">
-        <v>30</v>
-      </c>
-      <c r="S46" s="18">
-        <v>70</v>
-      </c>
-      <c r="T46" s="18">
-        <v>50</v>
-      </c>
-      <c r="U46" s="18">
-        <v>48</v>
-      </c>
-      <c r="V46" s="18">
-        <v>44</v>
-      </c>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
@@ -6149,33 +5210,17 @@
       <c r="H47" s="8"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="18">
-        <v>20</v>
-      </c>
-      <c r="L47" s="18">
-        <v>60</v>
-      </c>
-      <c r="M47" s="18">
-        <v>60</v>
-      </c>
-      <c r="N47" s="18">
-        <v>5</v>
-      </c>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
-      <c r="R47" s="18">
-        <v>20</v>
-      </c>
-      <c r="S47" s="18">
-        <v>60</v>
-      </c>
-      <c r="T47" s="18">
-        <v>60</v>
-      </c>
-      <c r="U47" s="18">
-        <v>5</v>
-      </c>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
       <c r="V47" s="17"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
@@ -6205,38 +5250,18 @@
       <c r="H48" s="8"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="18">
-        <v>12</v>
-      </c>
-      <c r="L48" s="18">
-        <v>20</v>
-      </c>
-      <c r="M48" s="18">
-        <v>22</v>
-      </c>
-      <c r="N48" s="18">
-        <v>15</v>
-      </c>
-      <c r="O48" s="18">
-        <v>12</v>
-      </c>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
-      <c r="R48" s="18">
-        <v>12</v>
-      </c>
-      <c r="S48" s="18">
-        <v>20</v>
-      </c>
-      <c r="T48" s="18">
-        <v>22</v>
-      </c>
-      <c r="U48" s="18">
-        <v>15</v>
-      </c>
-      <c r="V48" s="18">
-        <v>12</v>
-      </c>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
@@ -6263,48 +5288,20 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="18">
-        <v>5</v>
-      </c>
-      <c r="J49" s="18">
-        <v>20</v>
-      </c>
-      <c r="K49" s="18">
-        <v>26</v>
-      </c>
-      <c r="L49" s="18">
-        <v>30</v>
-      </c>
-      <c r="M49" s="18">
-        <v>24</v>
-      </c>
-      <c r="N49" s="18">
-        <v>6</v>
-      </c>
-      <c r="O49" s="18">
-        <v>5</v>
-      </c>
-      <c r="P49" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="18">
-        <v>20</v>
-      </c>
-      <c r="R49" s="18">
-        <v>26</v>
-      </c>
-      <c r="S49" s="18">
-        <v>30</v>
-      </c>
-      <c r="T49" s="18">
-        <v>24</v>
-      </c>
-      <c r="U49" s="18">
-        <v>6</v>
-      </c>
-      <c r="V49" s="18">
-        <v>5</v>
-      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
@@ -6333,38 +5330,18 @@
       <c r="H50" s="8"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
-      <c r="K50" s="18">
-        <v>27</v>
-      </c>
-      <c r="L50" s="18">
-        <v>52</v>
-      </c>
-      <c r="M50" s="18">
-        <v>37</v>
-      </c>
-      <c r="N50" s="18">
-        <v>25</v>
-      </c>
-      <c r="O50" s="18">
-        <v>20</v>
-      </c>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
-      <c r="R50" s="18">
-        <v>27</v>
-      </c>
-      <c r="S50" s="18">
-        <v>52</v>
-      </c>
-      <c r="T50" s="18">
-        <v>37</v>
-      </c>
-      <c r="U50" s="18">
-        <v>25</v>
-      </c>
-      <c r="V50" s="18">
-        <v>20</v>
-      </c>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
@@ -6393,38 +5370,18 @@
       <c r="H51" s="8"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="21">
-        <v>33</v>
-      </c>
-      <c r="L51" s="21">
-        <v>64</v>
-      </c>
-      <c r="M51" s="21">
-        <v>53</v>
-      </c>
-      <c r="N51" s="21">
-        <v>74</v>
-      </c>
-      <c r="O51" s="21">
-        <v>23</v>
-      </c>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
-      <c r="R51" s="21">
-        <v>33</v>
-      </c>
-      <c r="S51" s="21">
-        <v>64</v>
-      </c>
-      <c r="T51" s="21">
-        <v>53</v>
-      </c>
-      <c r="U51" s="21">
-        <v>74</v>
-      </c>
-      <c r="V51" s="21">
-        <v>23</v>
-      </c>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
@@ -6451,48 +5408,20 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="22">
-        <v>0</v>
-      </c>
-      <c r="J52" s="21">
-        <v>1</v>
-      </c>
-      <c r="K52" s="21">
-        <v>29</v>
-      </c>
-      <c r="L52" s="21">
-        <v>106</v>
-      </c>
-      <c r="M52" s="21">
-        <v>75</v>
-      </c>
-      <c r="N52" s="21">
-        <v>68</v>
-      </c>
-      <c r="O52" s="21">
-        <v>21</v>
-      </c>
-      <c r="P52" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="21">
-        <v>1</v>
-      </c>
-      <c r="R52" s="21">
-        <v>29</v>
-      </c>
-      <c r="S52" s="21">
-        <v>106</v>
-      </c>
-      <c r="T52" s="21">
-        <v>75</v>
-      </c>
-      <c r="U52" s="21">
-        <v>68</v>
-      </c>
-      <c r="V52" s="21">
-        <v>21</v>
-      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
@@ -6520,38 +5449,18 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="18">
-        <v>30</v>
-      </c>
-      <c r="K53" s="18">
-        <v>199</v>
-      </c>
-      <c r="L53" s="18">
-        <v>160</v>
-      </c>
-      <c r="M53" s="18">
-        <v>130</v>
-      </c>
-      <c r="N53" s="18">
-        <v>150</v>
-      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
-      <c r="Q53" s="18">
-        <v>30</v>
-      </c>
-      <c r="R53" s="18">
-        <v>199</v>
-      </c>
-      <c r="S53" s="18">
-        <v>160</v>
-      </c>
-      <c r="T53" s="18">
-        <v>130</v>
-      </c>
-      <c r="U53" s="18">
-        <v>150</v>
-      </c>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
       <c r="V53" s="17"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
@@ -6580,43 +5489,19 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="18">
-        <v>8</v>
-      </c>
-      <c r="K54" s="18">
-        <v>30</v>
-      </c>
-      <c r="L54" s="18">
-        <v>20</v>
-      </c>
-      <c r="M54" s="18">
-        <v>15</v>
-      </c>
-      <c r="N54" s="18">
-        <v>15</v>
-      </c>
-      <c r="O54" s="18">
-        <v>10</v>
-      </c>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
       <c r="P54" s="17"/>
-      <c r="Q54" s="18">
-        <v>8</v>
-      </c>
-      <c r="R54" s="18">
-        <v>30</v>
-      </c>
-      <c r="S54" s="18">
-        <v>20</v>
-      </c>
-      <c r="T54" s="18">
-        <v>15</v>
-      </c>
-      <c r="U54" s="18">
-        <v>15</v>
-      </c>
-      <c r="V54" s="18">
-        <v>10</v>
-      </c>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
@@ -6646,33 +5531,17 @@
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
-      <c r="L55" s="18">
-        <v>30</v>
-      </c>
-      <c r="M55" s="18">
-        <v>30</v>
-      </c>
-      <c r="N55" s="18">
-        <v>30</v>
-      </c>
-      <c r="O55" s="18">
-        <v>30</v>
-      </c>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="17"/>
-      <c r="S55" s="18">
-        <v>30</v>
-      </c>
-      <c r="T55" s="18">
-        <v>30</v>
-      </c>
-      <c r="U55" s="18">
-        <v>30</v>
-      </c>
-      <c r="V55" s="18">
-        <v>30</v>
-      </c>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
@@ -6700,43 +5569,19 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="18">
-        <v>4</v>
-      </c>
-      <c r="K56" s="18">
-        <v>32</v>
-      </c>
-      <c r="L56" s="18">
-        <v>42</v>
-      </c>
-      <c r="M56" s="18">
-        <v>72</v>
-      </c>
-      <c r="N56" s="18">
-        <v>110</v>
-      </c>
-      <c r="O56" s="18">
-        <v>40</v>
-      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
       <c r="P56" s="17"/>
-      <c r="Q56" s="18">
-        <v>4</v>
-      </c>
-      <c r="R56" s="18">
-        <v>32</v>
-      </c>
-      <c r="S56" s="18">
-        <v>42</v>
-      </c>
-      <c r="T56" s="18">
-        <v>72</v>
-      </c>
-      <c r="U56" s="18">
-        <v>110</v>
-      </c>
-      <c r="V56" s="18">
-        <v>40</v>
-      </c>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
@@ -6763,48 +5608,20 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="19">
-        <v>0</v>
-      </c>
-      <c r="J57" s="19">
-        <v>0</v>
-      </c>
-      <c r="K57" s="18">
-        <v>10</v>
-      </c>
-      <c r="L57" s="18">
-        <v>50</v>
-      </c>
-      <c r="M57" s="18">
-        <v>50</v>
-      </c>
-      <c r="N57" s="18">
-        <v>60</v>
-      </c>
-      <c r="O57" s="18">
-        <v>40</v>
-      </c>
-      <c r="P57" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="19">
-        <v>0</v>
-      </c>
-      <c r="R57" s="18">
-        <v>10</v>
-      </c>
-      <c r="S57" s="18">
-        <v>50</v>
-      </c>
-      <c r="T57" s="18">
-        <v>50</v>
-      </c>
-      <c r="U57" s="18">
-        <v>60</v>
-      </c>
-      <c r="V57" s="18">
-        <v>40</v>
-      </c>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
@@ -6832,43 +5649,19 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="17"/>
-      <c r="J58" s="18">
-        <v>5</v>
-      </c>
-      <c r="K58" s="18">
-        <v>65</v>
-      </c>
-      <c r="L58" s="18">
-        <v>65</v>
-      </c>
-      <c r="M58" s="18">
-        <v>50</v>
-      </c>
-      <c r="N58" s="18">
-        <v>50</v>
-      </c>
-      <c r="O58" s="19">
-        <v>0</v>
-      </c>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="19"/>
       <c r="P58" s="17"/>
-      <c r="Q58" s="18">
-        <v>5</v>
-      </c>
-      <c r="R58" s="18">
-        <v>65</v>
-      </c>
-      <c r="S58" s="18">
-        <v>65</v>
-      </c>
-      <c r="T58" s="18">
-        <v>50</v>
-      </c>
-      <c r="U58" s="18">
-        <v>50</v>
-      </c>
-      <c r="V58" s="19">
-        <v>0</v>
-      </c>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="19"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
@@ -6897,38 +5690,18 @@
       <c r="H59" s="8"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="18">
-        <v>80</v>
-      </c>
-      <c r="L59" s="18">
-        <v>80</v>
-      </c>
-      <c r="M59" s="18">
-        <v>85</v>
-      </c>
-      <c r="N59" s="18">
-        <v>80</v>
-      </c>
-      <c r="O59" s="18">
-        <v>50</v>
-      </c>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
-      <c r="R59" s="18">
-        <v>80</v>
-      </c>
-      <c r="S59" s="18">
-        <v>80</v>
-      </c>
-      <c r="T59" s="18">
-        <v>85</v>
-      </c>
-      <c r="U59" s="18">
-        <v>80</v>
-      </c>
-      <c r="V59" s="18">
-        <v>50</v>
-      </c>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
@@ -6957,38 +5730,18 @@
       <c r="H60" s="8"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="18">
-        <v>54</v>
-      </c>
-      <c r="L60" s="18">
-        <v>184</v>
-      </c>
-      <c r="M60" s="18">
-        <v>77</v>
-      </c>
-      <c r="N60" s="18">
-        <v>74</v>
-      </c>
-      <c r="O60" s="18">
-        <v>71</v>
-      </c>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
-      <c r="R60" s="18">
-        <v>54</v>
-      </c>
-      <c r="S60" s="18">
-        <v>184</v>
-      </c>
-      <c r="T60" s="18">
-        <v>77</v>
-      </c>
-      <c r="U60" s="18">
-        <v>74</v>
-      </c>
-      <c r="V60" s="18">
-        <v>71</v>
-      </c>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
@@ -7017,28 +5770,16 @@
       <c r="H61" s="8"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="18">
-        <v>30</v>
-      </c>
-      <c r="L61" s="18">
-        <v>35</v>
-      </c>
-      <c r="M61" s="18">
-        <v>10</v>
-      </c>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
-      <c r="R61" s="18">
-        <v>30</v>
-      </c>
-      <c r="S61" s="18">
-        <v>35</v>
-      </c>
-      <c r="T61" s="18">
-        <v>10</v>
-      </c>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
       <c r="W61" s="4"/>
@@ -7067,48 +5808,20 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="18">
-        <v>2</v>
-      </c>
-      <c r="J62" s="18">
-        <v>10</v>
-      </c>
-      <c r="K62" s="18">
-        <v>10</v>
-      </c>
-      <c r="L62" s="18">
-        <v>15</v>
-      </c>
-      <c r="M62" s="18">
-        <v>10</v>
-      </c>
-      <c r="N62" s="18">
-        <v>24</v>
-      </c>
-      <c r="O62" s="18">
-        <v>20</v>
-      </c>
-      <c r="P62" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q62" s="18">
-        <v>10</v>
-      </c>
-      <c r="R62" s="18">
-        <v>10</v>
-      </c>
-      <c r="S62" s="18">
-        <v>15</v>
-      </c>
-      <c r="T62" s="18">
-        <v>10</v>
-      </c>
-      <c r="U62" s="18">
-        <v>24</v>
-      </c>
-      <c r="V62" s="18">
-        <v>20</v>
-      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
@@ -7137,38 +5850,18 @@
       <c r="H63" s="8"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="18">
-        <v>5</v>
-      </c>
-      <c r="L63" s="18">
-        <v>120</v>
-      </c>
-      <c r="M63" s="18">
-        <v>120</v>
-      </c>
-      <c r="N63" s="18">
-        <v>120</v>
-      </c>
-      <c r="O63" s="18">
-        <v>10</v>
-      </c>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
-      <c r="R63" s="18">
-        <v>5</v>
-      </c>
-      <c r="S63" s="18">
-        <v>120</v>
-      </c>
-      <c r="T63" s="18">
-        <v>120</v>
-      </c>
-      <c r="U63" s="18">
-        <v>120</v>
-      </c>
-      <c r="V63" s="18">
-        <v>10</v>
-      </c>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
@@ -7196,43 +5889,19 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="17"/>
-      <c r="J64" s="18">
-        <v>15</v>
-      </c>
-      <c r="K64" s="18">
-        <v>61</v>
-      </c>
-      <c r="L64" s="18">
-        <v>72</v>
-      </c>
-      <c r="M64" s="18">
-        <v>41</v>
-      </c>
-      <c r="N64" s="18">
-        <v>37</v>
-      </c>
-      <c r="O64" s="18">
-        <v>37</v>
-      </c>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
       <c r="P64" s="17"/>
-      <c r="Q64" s="18">
-        <v>15</v>
-      </c>
-      <c r="R64" s="18">
-        <v>61</v>
-      </c>
-      <c r="S64" s="18">
-        <v>72</v>
-      </c>
-      <c r="T64" s="18">
-        <v>41</v>
-      </c>
-      <c r="U64" s="18">
-        <v>37</v>
-      </c>
-      <c r="V64" s="18">
-        <v>37</v>
-      </c>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
@@ -7261,38 +5930,18 @@
       <c r="H65" s="8"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
-      <c r="K65" s="18">
-        <v>50</v>
-      </c>
-      <c r="L65" s="18">
-        <v>70</v>
-      </c>
-      <c r="M65" s="18">
-        <v>80</v>
-      </c>
-      <c r="N65" s="18">
-        <v>100</v>
-      </c>
-      <c r="O65" s="18">
-        <v>100</v>
-      </c>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
-      <c r="R65" s="18">
-        <v>50</v>
-      </c>
-      <c r="S65" s="18">
-        <v>70</v>
-      </c>
-      <c r="T65" s="18">
-        <v>80</v>
-      </c>
-      <c r="U65" s="18">
-        <v>100</v>
-      </c>
-      <c r="V65" s="18">
-        <v>100</v>
-      </c>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
@@ -7320,43 +5969,19 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="17"/>
-      <c r="J66" s="18">
-        <v>20</v>
-      </c>
-      <c r="K66" s="18">
-        <v>30</v>
-      </c>
-      <c r="L66" s="18">
-        <v>30</v>
-      </c>
-      <c r="M66" s="18">
-        <v>20</v>
-      </c>
-      <c r="N66" s="18">
-        <v>20</v>
-      </c>
-      <c r="O66" s="18">
-        <v>30</v>
-      </c>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
       <c r="P66" s="17"/>
-      <c r="Q66" s="18">
-        <v>20</v>
-      </c>
-      <c r="R66" s="18">
-        <v>30</v>
-      </c>
-      <c r="S66" s="18">
-        <v>30</v>
-      </c>
-      <c r="T66" s="18">
-        <v>20</v>
-      </c>
-      <c r="U66" s="18">
-        <v>20</v>
-      </c>
-      <c r="V66" s="18">
-        <v>30</v>
-      </c>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
@@ -7383,33 +6008,17 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="19">
-        <v>0</v>
-      </c>
-      <c r="J67" s="18">
-        <v>70</v>
-      </c>
-      <c r="K67" s="18">
-        <v>80</v>
-      </c>
-      <c r="L67" s="18">
-        <v>51</v>
-      </c>
+      <c r="I67" s="19"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="18">
-        <v>70</v>
-      </c>
-      <c r="R67" s="18">
-        <v>80</v>
-      </c>
-      <c r="S67" s="18">
-        <v>51</v>
-      </c>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
@@ -7440,43 +6049,19 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="17"/>
-      <c r="J68" s="18">
-        <v>5</v>
-      </c>
-      <c r="K68" s="18">
-        <v>5</v>
-      </c>
-      <c r="L68" s="18">
-        <v>70</v>
-      </c>
-      <c r="M68" s="18">
-        <v>56</v>
-      </c>
-      <c r="N68" s="18">
-        <v>47</v>
-      </c>
-      <c r="O68" s="18">
-        <v>20</v>
-      </c>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
       <c r="P68" s="17"/>
-      <c r="Q68" s="18">
-        <v>5</v>
-      </c>
-      <c r="R68" s="18">
-        <v>5</v>
-      </c>
-      <c r="S68" s="18">
-        <v>70</v>
-      </c>
-      <c r="T68" s="18">
-        <v>56</v>
-      </c>
-      <c r="U68" s="18">
-        <v>47</v>
-      </c>
-      <c r="V68" s="18">
-        <v>20</v>
-      </c>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
@@ -7504,43 +6089,19 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="17"/>
-      <c r="J69" s="18">
-        <v>5</v>
-      </c>
-      <c r="K69" s="18">
-        <v>50</v>
-      </c>
-      <c r="L69" s="18">
-        <v>50</v>
-      </c>
-      <c r="M69" s="18">
-        <v>50</v>
-      </c>
-      <c r="N69" s="18">
-        <v>50</v>
-      </c>
-      <c r="O69" s="18">
-        <v>50</v>
-      </c>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
       <c r="P69" s="17"/>
-      <c r="Q69" s="18">
-        <v>5</v>
-      </c>
-      <c r="R69" s="18">
-        <v>50</v>
-      </c>
-      <c r="S69" s="18">
-        <v>50</v>
-      </c>
-      <c r="T69" s="18">
-        <v>50</v>
-      </c>
-      <c r="U69" s="18">
-        <v>50</v>
-      </c>
-      <c r="V69" s="18">
-        <v>50</v>
-      </c>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
@@ -7567,48 +6128,20 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="19">
-        <v>0</v>
-      </c>
-      <c r="J70" s="19">
-        <v>0</v>
-      </c>
-      <c r="K70" s="18">
-        <v>40</v>
-      </c>
-      <c r="L70" s="18">
-        <v>100</v>
-      </c>
-      <c r="M70" s="18">
-        <v>100</v>
-      </c>
-      <c r="N70" s="18">
-        <v>100</v>
-      </c>
-      <c r="O70" s="18">
-        <v>50</v>
-      </c>
-      <c r="P70" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="19">
-        <v>0</v>
-      </c>
-      <c r="R70" s="18">
-        <v>40</v>
-      </c>
-      <c r="S70" s="18">
-        <v>100</v>
-      </c>
-      <c r="T70" s="18">
-        <v>100</v>
-      </c>
-      <c r="U70" s="18">
-        <v>100</v>
-      </c>
-      <c r="V70" s="18">
-        <v>50</v>
-      </c>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
@@ -7635,33 +6168,17 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="18">
-        <v>1</v>
-      </c>
-      <c r="J71" s="18">
-        <v>9</v>
-      </c>
-      <c r="K71" s="18">
-        <v>14</v>
-      </c>
-      <c r="L71" s="18">
-        <v>11</v>
-      </c>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="18">
-        <v>9</v>
-      </c>
-      <c r="R71" s="18">
-        <v>14</v>
-      </c>
-      <c r="S71" s="18">
-        <v>11</v>
-      </c>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
       <c r="T71" s="17"/>
       <c r="U71" s="17"/>
       <c r="V71" s="17"/>
@@ -7692,43 +6209,19 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="17"/>
-      <c r="J72" s="18">
-        <v>4</v>
-      </c>
-      <c r="K72" s="18">
-        <v>30</v>
-      </c>
-      <c r="L72" s="18">
-        <v>60</v>
-      </c>
-      <c r="M72" s="18">
-        <v>63</v>
-      </c>
-      <c r="N72" s="18">
-        <v>53</v>
-      </c>
-      <c r="O72" s="18">
-        <v>10</v>
-      </c>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
       <c r="P72" s="17"/>
-      <c r="Q72" s="18">
-        <v>4</v>
-      </c>
-      <c r="R72" s="18">
-        <v>30</v>
-      </c>
-      <c r="S72" s="18">
-        <v>60</v>
-      </c>
-      <c r="T72" s="18">
-        <v>63</v>
-      </c>
-      <c r="U72" s="18">
-        <v>53</v>
-      </c>
-      <c r="V72" s="18">
-        <v>10</v>
-      </c>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
@@ -7756,33 +6249,17 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="18">
-        <v>25</v>
-      </c>
-      <c r="K73" s="18">
-        <v>50</v>
-      </c>
-      <c r="L73" s="18">
-        <v>50</v>
-      </c>
-      <c r="M73" s="18">
-        <v>80</v>
-      </c>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
-      <c r="Q73" s="18">
-        <v>25</v>
-      </c>
-      <c r="R73" s="18">
-        <v>50</v>
-      </c>
-      <c r="S73" s="18">
-        <v>50</v>
-      </c>
-      <c r="T73" s="18">
-        <v>80</v>
-      </c>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
       <c r="U73" s="17"/>
       <c r="V73" s="17"/>
       <c r="W73" s="4"/>
@@ -7813,33 +6290,17 @@
       <c r="H74" s="8"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="18">
-        <v>34</v>
-      </c>
-      <c r="L74" s="18">
-        <v>46</v>
-      </c>
-      <c r="M74" s="18">
-        <v>80</v>
-      </c>
-      <c r="N74" s="18">
-        <v>10</v>
-      </c>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
-      <c r="R74" s="18">
-        <v>34</v>
-      </c>
-      <c r="S74" s="18">
-        <v>46</v>
-      </c>
-      <c r="T74" s="18">
-        <v>80</v>
-      </c>
-      <c r="U74" s="18">
-        <v>10</v>
-      </c>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
       <c r="V74" s="17"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
@@ -7869,38 +6330,18 @@
       <c r="H75" s="8"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="18">
-        <v>70</v>
-      </c>
-      <c r="L75" s="18">
-        <v>70</v>
-      </c>
-      <c r="M75" s="18">
-        <v>70</v>
-      </c>
-      <c r="N75" s="18">
-        <v>70</v>
-      </c>
-      <c r="O75" s="18">
-        <v>70</v>
-      </c>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
-      <c r="R75" s="18">
-        <v>70</v>
-      </c>
-      <c r="S75" s="18">
-        <v>70</v>
-      </c>
-      <c r="T75" s="18">
-        <v>70</v>
-      </c>
-      <c r="U75" s="18">
-        <v>70</v>
-      </c>
-      <c r="V75" s="18">
-        <v>70</v>
-      </c>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
@@ -7929,33 +6370,17 @@
       <c r="H76" s="8"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="18">
-        <v>2</v>
-      </c>
-      <c r="L76" s="18">
-        <v>3</v>
-      </c>
-      <c r="M76" s="18">
-        <v>3</v>
-      </c>
-      <c r="N76" s="18">
-        <v>2</v>
-      </c>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
-      <c r="R76" s="18">
-        <v>2</v>
-      </c>
-      <c r="S76" s="18">
-        <v>3</v>
-      </c>
-      <c r="T76" s="18">
-        <v>3</v>
-      </c>
-      <c r="U76" s="18">
-        <v>2</v>
-      </c>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
       <c r="V76" s="17"/>
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
@@ -7985,33 +6410,17 @@
       <c r="H77" s="8"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="18">
-        <v>28</v>
-      </c>
-      <c r="L77" s="18">
-        <v>45</v>
-      </c>
-      <c r="M77" s="18">
-        <v>75</v>
-      </c>
-      <c r="N77" s="18">
-        <v>30</v>
-      </c>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
-      <c r="R77" s="18">
-        <v>28</v>
-      </c>
-      <c r="S77" s="18">
-        <v>45</v>
-      </c>
-      <c r="T77" s="18">
-        <v>75</v>
-      </c>
-      <c r="U77" s="18">
-        <v>30</v>
-      </c>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="18"/>
       <c r="V77" s="17"/>
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
@@ -8039,48 +6448,20 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="19">
-        <v>0</v>
-      </c>
-      <c r="J78" s="18">
-        <v>25</v>
-      </c>
-      <c r="K78" s="18">
-        <v>35</v>
-      </c>
-      <c r="L78" s="18">
-        <v>62</v>
-      </c>
-      <c r="M78" s="18">
-        <v>27</v>
-      </c>
-      <c r="N78" s="18">
-        <v>77</v>
-      </c>
-      <c r="O78" s="18">
-        <v>86</v>
-      </c>
-      <c r="P78" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="18">
-        <v>25</v>
-      </c>
-      <c r="R78" s="18">
-        <v>35</v>
-      </c>
-      <c r="S78" s="18">
-        <v>62</v>
-      </c>
-      <c r="T78" s="18">
-        <v>27</v>
-      </c>
-      <c r="U78" s="18">
-        <v>77</v>
-      </c>
-      <c r="V78" s="18">
-        <v>86</v>
-      </c>
+      <c r="I78" s="19"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="18"/>
+      <c r="V78" s="18"/>
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
@@ -8109,33 +6490,17 @@
       <c r="H79" s="8"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="18">
-        <v>10</v>
-      </c>
-      <c r="L79" s="18">
-        <v>60</v>
-      </c>
-      <c r="M79" s="18">
-        <v>40</v>
-      </c>
-      <c r="N79" s="18">
-        <v>10</v>
-      </c>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
-      <c r="R79" s="18">
-        <v>10</v>
-      </c>
-      <c r="S79" s="18">
-        <v>60</v>
-      </c>
-      <c r="T79" s="18">
-        <v>40</v>
-      </c>
-      <c r="U79" s="18">
-        <v>10</v>
-      </c>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
       <c r="V79" s="17"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
@@ -8164,43 +6529,19 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="17"/>
-      <c r="J80" s="18">
-        <v>2</v>
-      </c>
-      <c r="K80" s="18">
-        <v>11</v>
-      </c>
-      <c r="L80" s="18">
-        <v>14</v>
-      </c>
-      <c r="M80" s="18">
-        <v>23</v>
-      </c>
-      <c r="N80" s="18">
-        <v>15</v>
-      </c>
-      <c r="O80" s="18">
-        <v>12</v>
-      </c>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
       <c r="P80" s="17"/>
-      <c r="Q80" s="18">
-        <v>2</v>
-      </c>
-      <c r="R80" s="18">
-        <v>11</v>
-      </c>
-      <c r="S80" s="18">
-        <v>14</v>
-      </c>
-      <c r="T80" s="18">
-        <v>23</v>
-      </c>
-      <c r="U80" s="18">
-        <v>15</v>
-      </c>
-      <c r="V80" s="18">
-        <v>12</v>
-      </c>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
@@ -8227,43 +6568,19 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="K81" s="18">
-        <v>30</v>
-      </c>
-      <c r="L81" s="18">
-        <v>41</v>
-      </c>
-      <c r="M81" s="18">
-        <v>5</v>
-      </c>
-      <c r="N81" s="18">
-        <v>1</v>
-      </c>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="Q81" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="R81" s="18">
-        <v>30</v>
-      </c>
-      <c r="S81" s="18">
-        <v>41</v>
-      </c>
-      <c r="T81" s="18">
-        <v>5</v>
-      </c>
-      <c r="U81" s="18">
-        <v>1</v>
-      </c>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
       <c r="V81" s="17"/>
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
@@ -8292,38 +6609,18 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="17"/>
-      <c r="J82" s="18">
-        <v>28</v>
-      </c>
-      <c r="K82" s="18">
-        <v>83</v>
-      </c>
-      <c r="L82" s="18">
-        <v>29</v>
-      </c>
-      <c r="M82" s="18">
-        <v>7</v>
-      </c>
-      <c r="N82" s="18">
-        <v>1</v>
-      </c>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
-      <c r="Q82" s="18">
-        <v>28</v>
-      </c>
-      <c r="R82" s="18">
-        <v>83</v>
-      </c>
-      <c r="S82" s="18">
-        <v>29</v>
-      </c>
-      <c r="T82" s="18">
-        <v>7</v>
-      </c>
-      <c r="U82" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
       <c r="V82" s="17"/>
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
@@ -8352,33 +6649,17 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="17"/>
-      <c r="J83" s="18">
-        <v>10</v>
-      </c>
-      <c r="K83" s="18">
-        <v>40</v>
-      </c>
-      <c r="L83" s="18">
-        <v>40</v>
-      </c>
-      <c r="M83" s="18">
-        <v>10</v>
-      </c>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
-      <c r="Q83" s="18">
-        <v>10</v>
-      </c>
-      <c r="R83" s="18">
-        <v>40</v>
-      </c>
-      <c r="S83" s="18">
-        <v>40</v>
-      </c>
-      <c r="T83" s="18">
-        <v>10</v>
-      </c>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
       <c r="U83" s="17"/>
       <c r="V83" s="17"/>
       <c r="W83" s="4"/>
@@ -8408,33 +6689,17 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="17"/>
-      <c r="J84" s="18">
-        <v>50</v>
-      </c>
-      <c r="K84" s="18">
-        <v>60</v>
-      </c>
-      <c r="L84" s="18">
-        <v>80</v>
-      </c>
-      <c r="M84" s="18">
-        <v>30</v>
-      </c>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
       <c r="P84" s="17"/>
-      <c r="Q84" s="18">
-        <v>50</v>
-      </c>
-      <c r="R84" s="18">
-        <v>60</v>
-      </c>
-      <c r="S84" s="18">
-        <v>80</v>
-      </c>
-      <c r="T84" s="18">
-        <v>30</v>
-      </c>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
       <c r="U84" s="17"/>
       <c r="V84" s="17"/>
       <c r="W84" s="4"/>
@@ -8464,38 +6729,18 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="17"/>
-      <c r="J85" s="18">
-        <v>10</v>
-      </c>
-      <c r="K85" s="18">
-        <v>23</v>
-      </c>
-      <c r="L85" s="18">
-        <v>10</v>
-      </c>
-      <c r="M85" s="18">
-        <v>4</v>
-      </c>
-      <c r="N85" s="18">
-        <v>1</v>
-      </c>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
       <c r="O85" s="17"/>
       <c r="P85" s="17"/>
-      <c r="Q85" s="18">
-        <v>10</v>
-      </c>
-      <c r="R85" s="18">
-        <v>23</v>
-      </c>
-      <c r="S85" s="18">
-        <v>10</v>
-      </c>
-      <c r="T85" s="18">
-        <v>4</v>
-      </c>
-      <c r="U85" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
       <c r="V85" s="17"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
@@ -8523,38 +6768,18 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="18">
-        <v>4</v>
-      </c>
-      <c r="J86" s="18">
-        <v>16</v>
-      </c>
-      <c r="K86" s="18">
-        <v>32</v>
-      </c>
-      <c r="L86" s="18">
-        <v>21</v>
-      </c>
-      <c r="M86" s="18">
-        <v>1</v>
-      </c>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
-      <c r="P86" s="18">
-        <v>4</v>
-      </c>
-      <c r="Q86" s="18">
-        <v>16</v>
-      </c>
-      <c r="R86" s="18">
-        <v>32</v>
-      </c>
-      <c r="S86" s="18">
-        <v>21</v>
-      </c>
-      <c r="T86" s="18">
-        <v>1</v>
-      </c>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
       <c r="U86" s="17"/>
       <c r="V86" s="17"/>
       <c r="W86" s="4"/>
@@ -8585,23 +6810,15 @@
       <c r="H87" s="8"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
-      <c r="K87" s="18">
-        <v>100</v>
-      </c>
-      <c r="L87" s="18">
-        <v>53</v>
-      </c>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
-      <c r="R87" s="18">
-        <v>100</v>
-      </c>
-      <c r="S87" s="18">
-        <v>53</v>
-      </c>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
       <c r="T87" s="17"/>
       <c r="U87" s="17"/>
       <c r="V87" s="17"/>
@@ -8632,33 +6849,17 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="17"/>
-      <c r="J88" s="18">
-        <v>4</v>
-      </c>
-      <c r="K88" s="18">
-        <v>41</v>
-      </c>
-      <c r="L88" s="18">
-        <v>27</v>
-      </c>
-      <c r="M88" s="18">
-        <v>2</v>
-      </c>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
       <c r="P88" s="17"/>
-      <c r="Q88" s="18">
-        <v>4</v>
-      </c>
-      <c r="R88" s="18">
-        <v>41</v>
-      </c>
-      <c r="S88" s="18">
-        <v>27</v>
-      </c>
-      <c r="T88" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
       <c r="U88" s="17"/>
       <c r="V88" s="17"/>
       <c r="W88" s="4"/>
@@ -8688,28 +6889,16 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="17"/>
-      <c r="J89" s="18">
-        <v>28</v>
-      </c>
-      <c r="K89" s="18">
-        <v>30</v>
-      </c>
-      <c r="L89" s="18">
-        <v>10</v>
-      </c>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
       <c r="O89" s="17"/>
       <c r="P89" s="17"/>
-      <c r="Q89" s="18">
-        <v>28</v>
-      </c>
-      <c r="R89" s="18">
-        <v>30</v>
-      </c>
-      <c r="S89" s="18">
-        <v>10</v>
-      </c>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
       <c r="T89" s="17"/>
       <c r="U89" s="17"/>
       <c r="V89" s="17"/>
@@ -8740,33 +6929,17 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="17"/>
-      <c r="J90" s="18">
-        <v>15</v>
-      </c>
-      <c r="K90" s="18">
-        <v>40</v>
-      </c>
-      <c r="L90" s="18">
-        <v>40</v>
-      </c>
-      <c r="M90" s="18">
-        <v>5</v>
-      </c>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
       <c r="N90" s="17"/>
       <c r="O90" s="17"/>
       <c r="P90" s="17"/>
-      <c r="Q90" s="18">
-        <v>15</v>
-      </c>
-      <c r="R90" s="18">
-        <v>40</v>
-      </c>
-      <c r="S90" s="18">
-        <v>40</v>
-      </c>
-      <c r="T90" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
       <c r="U90" s="17"/>
       <c r="V90" s="17"/>
       <c r="W90" s="4"/>
@@ -8796,38 +6969,18 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="17"/>
-      <c r="J91" s="18">
-        <v>10</v>
-      </c>
-      <c r="K91" s="18">
-        <v>50</v>
-      </c>
-      <c r="L91" s="18">
-        <v>30</v>
-      </c>
-      <c r="M91" s="18">
-        <v>5</v>
-      </c>
-      <c r="N91" s="18">
-        <v>5</v>
-      </c>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
       <c r="O91" s="17"/>
       <c r="P91" s="17"/>
-      <c r="Q91" s="18">
-        <v>10</v>
-      </c>
-      <c r="R91" s="18">
-        <v>50</v>
-      </c>
-      <c r="S91" s="18">
-        <v>30</v>
-      </c>
-      <c r="T91" s="18">
-        <v>5</v>
-      </c>
-      <c r="U91" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
       <c r="V91" s="17"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
@@ -8857,28 +7010,16 @@
       <c r="H92" s="8"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
-      <c r="K92" s="18">
-        <v>9</v>
-      </c>
-      <c r="L92" s="18">
-        <v>7</v>
-      </c>
-      <c r="M92" s="18">
-        <v>1</v>
-      </c>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
       <c r="N92" s="17"/>
       <c r="O92" s="17"/>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
-      <c r="R92" s="18">
-        <v>9</v>
-      </c>
-      <c r="S92" s="18">
-        <v>7</v>
-      </c>
-      <c r="T92" s="18">
-        <v>1</v>
-      </c>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
       <c r="U92" s="17"/>
       <c r="V92" s="17"/>
       <c r="W92" s="4"/>
@@ -8908,33 +7049,17 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="17"/>
-      <c r="J93" s="18">
-        <v>10</v>
-      </c>
-      <c r="K93" s="18">
-        <v>45</v>
-      </c>
-      <c r="L93" s="18">
-        <v>35</v>
-      </c>
-      <c r="M93" s="18">
-        <v>10</v>
-      </c>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
       <c r="N93" s="17"/>
       <c r="O93" s="17"/>
       <c r="P93" s="17"/>
-      <c r="Q93" s="18">
-        <v>10</v>
-      </c>
-      <c r="R93" s="18">
-        <v>45</v>
-      </c>
-      <c r="S93" s="18">
-        <v>35</v>
-      </c>
-      <c r="T93" s="18">
-        <v>10</v>
-      </c>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
       <c r="U93" s="17"/>
       <c r="V93" s="17"/>
       <c r="W93" s="4"/>
@@ -8963,48 +7088,20 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="19">
-        <v>0</v>
-      </c>
-      <c r="J94" s="19">
-        <v>0</v>
-      </c>
-      <c r="K94" s="19">
-        <v>0</v>
-      </c>
-      <c r="L94" s="18">
-        <v>10</v>
-      </c>
-      <c r="M94" s="18">
-        <v>20</v>
-      </c>
-      <c r="N94" s="18">
-        <v>15</v>
-      </c>
-      <c r="O94" s="18">
-        <v>15</v>
-      </c>
-      <c r="P94" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="19">
-        <v>0</v>
-      </c>
-      <c r="R94" s="19">
-        <v>0</v>
-      </c>
-      <c r="S94" s="18">
-        <v>10</v>
-      </c>
-      <c r="T94" s="18">
-        <v>20</v>
-      </c>
-      <c r="U94" s="18">
-        <v>15</v>
-      </c>
-      <c r="V94" s="18">
-        <v>15</v>
-      </c>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
@@ -9033,28 +7130,16 @@
       <c r="H95" s="8"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
-      <c r="K95" s="18">
-        <v>30</v>
-      </c>
-      <c r="L95" s="18">
-        <v>15</v>
-      </c>
-      <c r="M95" s="18">
-        <v>10</v>
-      </c>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
       <c r="N95" s="17"/>
       <c r="O95" s="17"/>
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
-      <c r="R95" s="18">
-        <v>30</v>
-      </c>
-      <c r="S95" s="18">
-        <v>15</v>
-      </c>
-      <c r="T95" s="18">
-        <v>10</v>
-      </c>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
       <c r="U95" s="17"/>
       <c r="V95" s="17"/>
       <c r="W95" s="4"/>
@@ -9083,38 +7168,18 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="18">
-        <v>1</v>
-      </c>
-      <c r="J96" s="18">
-        <v>40</v>
-      </c>
-      <c r="K96" s="18">
-        <v>80</v>
-      </c>
-      <c r="L96" s="18">
-        <v>30</v>
-      </c>
-      <c r="M96" s="18">
-        <v>6</v>
-      </c>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
       <c r="N96" s="17"/>
       <c r="O96" s="17"/>
-      <c r="P96" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="18">
-        <v>40</v>
-      </c>
-      <c r="R96" s="18">
-        <v>80</v>
-      </c>
-      <c r="S96" s="18">
-        <v>30</v>
-      </c>
-      <c r="T96" s="18">
-        <v>6</v>
-      </c>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
       <c r="U96" s="17"/>
       <c r="V96" s="17"/>
       <c r="W96" s="4"/>
@@ -9144,28 +7209,16 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="17"/>
-      <c r="J97" s="18">
-        <v>18</v>
-      </c>
-      <c r="K97" s="18">
-        <v>16</v>
-      </c>
-      <c r="L97" s="18">
-        <v>2</v>
-      </c>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
-      <c r="Q97" s="18">
-        <v>18</v>
-      </c>
-      <c r="R97" s="18">
-        <v>16</v>
-      </c>
-      <c r="S97" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
       <c r="T97" s="17"/>
       <c r="U97" s="17"/>
       <c r="V97" s="17"/>
@@ -9196,28 +7249,16 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="17"/>
-      <c r="J98" s="18">
-        <v>15</v>
-      </c>
-      <c r="K98" s="18">
-        <v>40</v>
-      </c>
-      <c r="L98" s="18">
-        <v>5</v>
-      </c>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
-      <c r="Q98" s="18">
-        <v>15</v>
-      </c>
-      <c r="R98" s="18">
-        <v>40</v>
-      </c>
-      <c r="S98" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
       <c r="T98" s="17"/>
       <c r="U98" s="17"/>
       <c r="V98" s="17"/>
@@ -9248,23 +7289,15 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="17"/>
-      <c r="J99" s="18">
-        <v>130</v>
-      </c>
-      <c r="K99" s="18">
-        <v>20</v>
-      </c>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
-      <c r="Q99" s="18">
-        <v>130</v>
-      </c>
-      <c r="R99" s="18">
-        <v>20</v>
-      </c>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
       <c r="S99" s="17"/>
       <c r="T99" s="17"/>
       <c r="U99" s="17"/>
@@ -9297,28 +7330,16 @@
       <c r="H100" s="8"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="18">
-        <v>40</v>
-      </c>
-      <c r="L100" s="18">
-        <v>28</v>
-      </c>
-      <c r="M100" s="18">
-        <v>7</v>
-      </c>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
-      <c r="R100" s="18">
-        <v>40</v>
-      </c>
-      <c r="S100" s="18">
-        <v>28</v>
-      </c>
-      <c r="T100" s="18">
-        <v>7</v>
-      </c>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="18"/>
       <c r="U100" s="17"/>
       <c r="V100" s="17"/>
       <c r="W100" s="4"/>
@@ -9348,38 +7369,18 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="17"/>
-      <c r="J101" s="18">
-        <v>30</v>
-      </c>
-      <c r="K101" s="18">
-        <v>50</v>
-      </c>
-      <c r="L101" s="18">
-        <v>50</v>
-      </c>
-      <c r="M101" s="18">
-        <v>8</v>
-      </c>
-      <c r="N101" s="18">
-        <v>5</v>
-      </c>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
-      <c r="Q101" s="18">
-        <v>30</v>
-      </c>
-      <c r="R101" s="18">
-        <v>50</v>
-      </c>
-      <c r="S101" s="18">
-        <v>50</v>
-      </c>
-      <c r="T101" s="18">
-        <v>8</v>
-      </c>
-      <c r="U101" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="18"/>
       <c r="V101" s="17"/>
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
@@ -9408,33 +7409,17 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="17"/>
-      <c r="J102" s="18">
-        <v>20</v>
-      </c>
-      <c r="K102" s="18">
-        <v>80</v>
-      </c>
-      <c r="L102" s="18">
-        <v>80</v>
-      </c>
-      <c r="M102" s="18">
-        <v>15</v>
-      </c>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
-      <c r="Q102" s="18">
-        <v>20</v>
-      </c>
-      <c r="R102" s="18">
-        <v>80</v>
-      </c>
-      <c r="S102" s="18">
-        <v>80</v>
-      </c>
-      <c r="T102" s="18">
-        <v>15</v>
-      </c>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="18"/>
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
       <c r="W102" s="4"/>
@@ -9464,38 +7449,18 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="17"/>
-      <c r="J103" s="18">
-        <v>10</v>
-      </c>
-      <c r="K103" s="18">
-        <v>60</v>
-      </c>
-      <c r="L103" s="18">
-        <v>80</v>
-      </c>
-      <c r="M103" s="18">
-        <v>10</v>
-      </c>
-      <c r="N103" s="18">
-        <v>5</v>
-      </c>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
-      <c r="Q103" s="18">
-        <v>10</v>
-      </c>
-      <c r="R103" s="18">
-        <v>60</v>
-      </c>
-      <c r="S103" s="18">
-        <v>80</v>
-      </c>
-      <c r="T103" s="18">
-        <v>10</v>
-      </c>
-      <c r="U103" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="18"/>
+      <c r="U103" s="18"/>
       <c r="V103" s="17"/>
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
@@ -9524,28 +7489,16 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="17"/>
-      <c r="J104" s="18">
-        <v>30</v>
-      </c>
-      <c r="K104" s="18">
-        <v>60</v>
-      </c>
-      <c r="L104" s="18">
-        <v>3</v>
-      </c>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
-      <c r="Q104" s="18">
-        <v>30</v>
-      </c>
-      <c r="R104" s="18">
-        <v>60</v>
-      </c>
-      <c r="S104" s="18">
-        <v>3</v>
-      </c>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="18"/>
       <c r="T104" s="17"/>
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
@@ -9577,28 +7530,16 @@
       <c r="H105" s="8"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
-      <c r="K105" s="18">
-        <v>25</v>
-      </c>
-      <c r="L105" s="18">
-        <v>60</v>
-      </c>
-      <c r="M105" s="18">
-        <v>30</v>
-      </c>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="17"/>
-      <c r="R105" s="18">
-        <v>25</v>
-      </c>
-      <c r="S105" s="18">
-        <v>60</v>
-      </c>
-      <c r="T105" s="18">
-        <v>30</v>
-      </c>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
+      <c r="T105" s="18"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
       <c r="W105" s="4"/>
@@ -9627,43 +7568,19 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="18">
-        <v>2</v>
-      </c>
-      <c r="J106" s="18">
-        <v>25</v>
-      </c>
-      <c r="K106" s="18">
-        <v>30</v>
-      </c>
-      <c r="L106" s="18">
-        <v>25</v>
-      </c>
-      <c r="M106" s="18">
-        <v>5</v>
-      </c>
-      <c r="N106" s="18">
-        <v>2</v>
-      </c>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
       <c r="O106" s="17"/>
-      <c r="P106" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q106" s="18">
-        <v>25</v>
-      </c>
-      <c r="R106" s="18">
-        <v>30</v>
-      </c>
-      <c r="S106" s="18">
-        <v>25</v>
-      </c>
-      <c r="T106" s="18">
-        <v>5</v>
-      </c>
-      <c r="U106" s="18">
-        <v>2</v>
-      </c>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="18"/>
+      <c r="T106" s="18"/>
+      <c r="U106" s="18"/>
       <c r="V106" s="17"/>
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
@@ -9691,48 +7608,20 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="19">
-        <v>0</v>
-      </c>
-      <c r="J107" s="18">
-        <v>4</v>
-      </c>
-      <c r="K107" s="18">
-        <v>16</v>
-      </c>
-      <c r="L107" s="18">
-        <v>60</v>
-      </c>
-      <c r="M107" s="19">
-        <v>2</v>
-      </c>
-      <c r="N107" s="19">
-        <v>2</v>
-      </c>
-      <c r="O107" s="19">
-        <v>0</v>
-      </c>
-      <c r="P107" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="18">
-        <v>4</v>
-      </c>
-      <c r="R107" s="18">
-        <v>16</v>
-      </c>
-      <c r="S107" s="18">
-        <v>60</v>
-      </c>
-      <c r="T107" s="19">
-        <v>2</v>
-      </c>
-      <c r="U107" s="19">
-        <v>2</v>
-      </c>
-      <c r="V107" s="19">
-        <v>0</v>
-      </c>
+      <c r="I107" s="19"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
@@ -9760,33 +7649,17 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="18">
-        <v>29</v>
-      </c>
-      <c r="K108" s="18">
-        <v>58</v>
-      </c>
-      <c r="L108" s="18">
-        <v>10</v>
-      </c>
-      <c r="M108" s="18">
-        <v>2</v>
-      </c>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
-      <c r="Q108" s="18">
-        <v>29</v>
-      </c>
-      <c r="R108" s="18">
-        <v>58</v>
-      </c>
-      <c r="S108" s="18">
-        <v>10</v>
-      </c>
-      <c r="T108" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
       <c r="U108" s="17"/>
       <c r="V108" s="17"/>
       <c r="W108" s="4"/>
@@ -9816,43 +7689,19 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="17"/>
-      <c r="J109" s="18">
-        <v>35</v>
-      </c>
-      <c r="K109" s="18">
-        <v>50</v>
-      </c>
-      <c r="L109" s="18">
-        <v>10</v>
-      </c>
-      <c r="M109" s="18">
-        <v>2</v>
-      </c>
-      <c r="N109" s="18">
-        <v>1</v>
-      </c>
-      <c r="O109" s="18">
-        <v>3</v>
-      </c>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
       <c r="P109" s="17"/>
-      <c r="Q109" s="18">
-        <v>35</v>
-      </c>
-      <c r="R109" s="18">
-        <v>50</v>
-      </c>
-      <c r="S109" s="18">
-        <v>10</v>
-      </c>
-      <c r="T109" s="18">
-        <v>2</v>
-      </c>
-      <c r="U109" s="18">
-        <v>1</v>
-      </c>
-      <c r="V109" s="18">
-        <v>3</v>
-      </c>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+      <c r="T109" s="18"/>
+      <c r="U109" s="18"/>
+      <c r="V109" s="18"/>
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
@@ -9880,38 +7729,18 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="18">
-        <v>30</v>
-      </c>
-      <c r="K110" s="18">
-        <v>60</v>
-      </c>
-      <c r="L110" s="18">
-        <v>30</v>
-      </c>
-      <c r="M110" s="18">
-        <v>2</v>
-      </c>
-      <c r="N110" s="18">
-        <v>2</v>
-      </c>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
-      <c r="Q110" s="18">
-        <v>30</v>
-      </c>
-      <c r="R110" s="18">
-        <v>60</v>
-      </c>
-      <c r="S110" s="18">
-        <v>30</v>
-      </c>
-      <c r="T110" s="18">
-        <v>2</v>
-      </c>
-      <c r="U110" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="18"/>
+      <c r="U110" s="18"/>
       <c r="V110" s="17"/>
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
@@ -9940,38 +7769,18 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="18">
-        <v>25</v>
-      </c>
-      <c r="K111" s="18">
-        <v>30</v>
-      </c>
-      <c r="L111" s="18">
-        <v>20</v>
-      </c>
-      <c r="M111" s="18">
-        <v>2</v>
-      </c>
-      <c r="N111" s="18">
-        <v>2</v>
-      </c>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
-      <c r="Q111" s="18">
-        <v>25</v>
-      </c>
-      <c r="R111" s="18">
-        <v>30</v>
-      </c>
-      <c r="S111" s="18">
-        <v>20</v>
-      </c>
-      <c r="T111" s="18">
-        <v>2</v>
-      </c>
-      <c r="U111" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="18"/>
+      <c r="T111" s="18"/>
+      <c r="U111" s="18"/>
       <c r="V111" s="17"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
@@ -10000,38 +7809,18 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="18">
-        <v>25</v>
-      </c>
-      <c r="K112" s="18">
-        <v>30</v>
-      </c>
-      <c r="L112" s="18">
-        <v>20</v>
-      </c>
-      <c r="M112" s="18">
-        <v>2</v>
-      </c>
-      <c r="N112" s="18">
-        <v>2</v>
-      </c>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
-      <c r="Q112" s="18">
-        <v>25</v>
-      </c>
-      <c r="R112" s="18">
-        <v>30</v>
-      </c>
-      <c r="S112" s="18">
-        <v>20</v>
-      </c>
-      <c r="T112" s="18">
-        <v>2</v>
-      </c>
-      <c r="U112" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+      <c r="S112" s="18"/>
+      <c r="T112" s="18"/>
+      <c r="U112" s="18"/>
       <c r="V112" s="17"/>
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
@@ -10063,18 +7852,14 @@
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
-      <c r="M113" s="17" t="s">
-        <v>881</v>
-      </c>
+      <c r="M113" s="17"/>
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
       <c r="R113" s="17"/>
       <c r="S113" s="17"/>
-      <c r="T113" s="17" t="s">
-        <v>881</v>
-      </c>
+      <c r="T113" s="17"/>
       <c r="U113" s="17"/>
       <c r="V113" s="17"/>
       <c r="W113" s="4"/>
@@ -10104,38 +7889,18 @@
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="17"/>
-      <c r="J114" s="18">
-        <v>4</v>
-      </c>
-      <c r="K114" s="18">
-        <v>20</v>
-      </c>
-      <c r="L114" s="18">
-        <v>25</v>
-      </c>
-      <c r="M114" s="18">
-        <v>15</v>
-      </c>
-      <c r="N114" s="18">
-        <v>2</v>
-      </c>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
-      <c r="Q114" s="18">
-        <v>4</v>
-      </c>
-      <c r="R114" s="18">
-        <v>20</v>
-      </c>
-      <c r="S114" s="18">
-        <v>25</v>
-      </c>
-      <c r="T114" s="18">
-        <v>15</v>
-      </c>
-      <c r="U114" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="18"/>
+      <c r="S114" s="18"/>
+      <c r="T114" s="18"/>
+      <c r="U114" s="18"/>
       <c r="V114" s="17"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
@@ -10164,33 +7929,17 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="17"/>
-      <c r="J115" s="18">
-        <v>5</v>
-      </c>
-      <c r="K115" s="18">
-        <v>25</v>
-      </c>
-      <c r="L115" s="18">
-        <v>25</v>
-      </c>
-      <c r="M115" s="18">
-        <v>10</v>
-      </c>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
-      <c r="Q115" s="18">
-        <v>5</v>
-      </c>
-      <c r="R115" s="18">
-        <v>25</v>
-      </c>
-      <c r="S115" s="18">
-        <v>25</v>
-      </c>
-      <c r="T115" s="18">
-        <v>10</v>
-      </c>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="18"/>
       <c r="U115" s="17"/>
       <c r="V115" s="17"/>
       <c r="W115" s="4"/>
@@ -10220,33 +7969,17 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="I116" s="17"/>
-      <c r="J116" s="18">
-        <v>5</v>
-      </c>
-      <c r="K116" s="18">
-        <v>45</v>
-      </c>
-      <c r="L116" s="18">
-        <v>40</v>
-      </c>
-      <c r="M116" s="18">
-        <v>4</v>
-      </c>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
       <c r="N116" s="17"/>
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
-      <c r="Q116" s="18">
-        <v>5</v>
-      </c>
-      <c r="R116" s="18">
-        <v>45</v>
-      </c>
-      <c r="S116" s="18">
-        <v>40</v>
-      </c>
-      <c r="T116" s="18">
-        <v>4</v>
-      </c>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="18"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="18"/>
       <c r="U116" s="17"/>
       <c r="V116" s="17"/>
       <c r="W116" s="4"/>
@@ -10277,23 +8010,15 @@
       <c r="H117" s="8"/>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
-      <c r="K117" s="18">
-        <v>46</v>
-      </c>
-      <c r="L117" s="18">
-        <v>23</v>
-      </c>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
       <c r="O117" s="17"/>
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
-      <c r="R117" s="18">
-        <v>46</v>
-      </c>
-      <c r="S117" s="18">
-        <v>23</v>
-      </c>
+      <c r="R117" s="18"/>
+      <c r="S117" s="18"/>
       <c r="T117" s="17"/>
       <c r="U117" s="17"/>
       <c r="V117" s="17"/>
@@ -10324,38 +8049,18 @@
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="17"/>
-      <c r="J118" s="18">
-        <v>50</v>
-      </c>
-      <c r="K118" s="18">
-        <v>47</v>
-      </c>
-      <c r="L118" s="18">
-        <v>26</v>
-      </c>
-      <c r="M118" s="18">
-        <v>6</v>
-      </c>
-      <c r="N118" s="18">
-        <v>1</v>
-      </c>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
       <c r="O118" s="17"/>
       <c r="P118" s="17"/>
-      <c r="Q118" s="18">
-        <v>50</v>
-      </c>
-      <c r="R118" s="18">
-        <v>47</v>
-      </c>
-      <c r="S118" s="18">
-        <v>26</v>
-      </c>
-      <c r="T118" s="18">
-        <v>6</v>
-      </c>
-      <c r="U118" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="18"/>
+      <c r="U118" s="18"/>
       <c r="V118" s="17"/>
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
@@ -10384,33 +8089,17 @@
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="17"/>
-      <c r="J119" s="18">
-        <v>20</v>
-      </c>
-      <c r="K119" s="18">
-        <v>150</v>
-      </c>
-      <c r="L119" s="18">
-        <v>120</v>
-      </c>
-      <c r="M119" s="18">
-        <v>20</v>
-      </c>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
       <c r="N119" s="17"/>
       <c r="O119" s="17"/>
       <c r="P119" s="17"/>
-      <c r="Q119" s="18">
-        <v>20</v>
-      </c>
-      <c r="R119" s="18">
-        <v>150</v>
-      </c>
-      <c r="S119" s="18">
-        <v>120</v>
-      </c>
-      <c r="T119" s="18">
-        <v>20</v>
-      </c>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="18"/>
       <c r="U119" s="17"/>
       <c r="V119" s="17"/>
       <c r="W119" s="4"/>
@@ -10440,38 +8129,18 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="17"/>
-      <c r="J120" s="18">
-        <v>30</v>
-      </c>
-      <c r="K120" s="18">
-        <v>66</v>
-      </c>
-      <c r="L120" s="18">
-        <v>20</v>
-      </c>
-      <c r="M120" s="18">
-        <v>5</v>
-      </c>
-      <c r="N120" s="18">
-        <v>2</v>
-      </c>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
       <c r="O120" s="17"/>
       <c r="P120" s="17"/>
-      <c r="Q120" s="18">
-        <v>30</v>
-      </c>
-      <c r="R120" s="18">
-        <v>66</v>
-      </c>
-      <c r="S120" s="18">
-        <v>20</v>
-      </c>
-      <c r="T120" s="18">
-        <v>5</v>
-      </c>
-      <c r="U120" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="18"/>
+      <c r="S120" s="18"/>
+      <c r="T120" s="18"/>
+      <c r="U120" s="18"/>
       <c r="V120" s="17"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
@@ -10501,28 +8170,16 @@
       <c r="H121" s="8"/>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
-      <c r="K121" s="18">
-        <v>90</v>
-      </c>
-      <c r="L121" s="18">
-        <v>90</v>
-      </c>
-      <c r="M121" s="18">
-        <v>5</v>
-      </c>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
       <c r="N121" s="17"/>
       <c r="O121" s="17"/>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
-      <c r="R121" s="18">
-        <v>90</v>
-      </c>
-      <c r="S121" s="18">
-        <v>90</v>
-      </c>
-      <c r="T121" s="18">
-        <v>5</v>
-      </c>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18"/>
+      <c r="T121" s="18"/>
       <c r="U121" s="17"/>
       <c r="V121" s="17"/>
       <c r="W121" s="4"/>
@@ -10552,28 +8209,16 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="I122" s="17"/>
-      <c r="J122" s="18">
-        <v>5</v>
-      </c>
-      <c r="K122" s="18">
-        <v>24</v>
-      </c>
-      <c r="L122" s="18">
-        <v>5</v>
-      </c>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
       <c r="O122" s="17"/>
       <c r="P122" s="17"/>
-      <c r="Q122" s="18">
-        <v>5</v>
-      </c>
-      <c r="R122" s="18">
-        <v>24</v>
-      </c>
-      <c r="S122" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q122" s="18"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18"/>
       <c r="T122" s="17"/>
       <c r="U122" s="17"/>
       <c r="V122" s="17"/>
@@ -10604,33 +8249,17 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="I123" s="17"/>
-      <c r="J123" s="18">
-        <v>22</v>
-      </c>
-      <c r="K123" s="18">
-        <v>57</v>
-      </c>
-      <c r="L123" s="18">
-        <v>19</v>
-      </c>
-      <c r="M123" s="18">
-        <v>1</v>
-      </c>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
       <c r="N123" s="17"/>
       <c r="O123" s="17"/>
       <c r="P123" s="17"/>
-      <c r="Q123" s="18">
-        <v>22</v>
-      </c>
-      <c r="R123" s="18">
-        <v>57</v>
-      </c>
-      <c r="S123" s="18">
-        <v>19</v>
-      </c>
-      <c r="T123" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="18"/>
       <c r="U123" s="17"/>
       <c r="V123" s="17"/>
       <c r="W123" s="4"/>
@@ -10659,43 +8288,19 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="18">
-        <v>4</v>
-      </c>
-      <c r="J124" s="18">
-        <v>50</v>
-      </c>
-      <c r="K124" s="18">
-        <v>60</v>
-      </c>
-      <c r="L124" s="18">
-        <v>50</v>
-      </c>
-      <c r="M124" s="18">
-        <v>20</v>
-      </c>
-      <c r="N124" s="18">
-        <v>16</v>
-      </c>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
       <c r="O124" s="17"/>
-      <c r="P124" s="18">
-        <v>4</v>
-      </c>
-      <c r="Q124" s="18">
-        <v>50</v>
-      </c>
-      <c r="R124" s="18">
-        <v>60</v>
-      </c>
-      <c r="S124" s="18">
-        <v>50</v>
-      </c>
-      <c r="T124" s="18">
-        <v>20</v>
-      </c>
-      <c r="U124" s="18">
-        <v>16</v>
-      </c>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="18"/>
+      <c r="T124" s="18"/>
+      <c r="U124" s="18"/>
       <c r="V124" s="17"/>
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
@@ -10724,28 +8329,16 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="18">
-        <v>40</v>
-      </c>
-      <c r="K125" s="18">
-        <v>60</v>
-      </c>
-      <c r="L125" s="18">
-        <v>20</v>
-      </c>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
       <c r="O125" s="17"/>
       <c r="P125" s="17"/>
-      <c r="Q125" s="18">
-        <v>40</v>
-      </c>
-      <c r="R125" s="18">
-        <v>60</v>
-      </c>
-      <c r="S125" s="18">
-        <v>20</v>
-      </c>
+      <c r="Q125" s="18"/>
+      <c r="R125" s="18"/>
+      <c r="S125" s="18"/>
       <c r="T125" s="17"/>
       <c r="U125" s="17"/>
       <c r="V125" s="17"/>
@@ -10776,43 +8369,19 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="17"/>
-      <c r="J126" s="18">
-        <v>75</v>
-      </c>
-      <c r="K126" s="18">
-        <v>75</v>
-      </c>
-      <c r="L126" s="18">
-        <v>20</v>
-      </c>
-      <c r="M126" s="18">
-        <v>5</v>
-      </c>
-      <c r="N126" s="18">
-        <v>5</v>
-      </c>
-      <c r="O126" s="18">
-        <v>5</v>
-      </c>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
       <c r="P126" s="17"/>
-      <c r="Q126" s="18">
-        <v>75</v>
-      </c>
-      <c r="R126" s="18">
-        <v>75</v>
-      </c>
-      <c r="S126" s="18">
-        <v>20</v>
-      </c>
-      <c r="T126" s="18">
-        <v>5</v>
-      </c>
-      <c r="U126" s="18">
-        <v>5</v>
-      </c>
-      <c r="V126" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="18"/>
+      <c r="T126" s="18"/>
+      <c r="U126" s="18"/>
+      <c r="V126" s="18"/>
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
@@ -10839,43 +8408,19 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="18">
-        <v>3</v>
-      </c>
-      <c r="J127" s="18">
-        <v>40</v>
-      </c>
-      <c r="K127" s="18">
-        <v>53</v>
-      </c>
-      <c r="L127" s="18">
-        <v>13</v>
-      </c>
-      <c r="M127" s="18">
-        <v>3</v>
-      </c>
-      <c r="N127" s="18">
-        <v>1</v>
-      </c>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
       <c r="O127" s="17"/>
-      <c r="P127" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q127" s="18">
-        <v>40</v>
-      </c>
-      <c r="R127" s="18">
-        <v>53</v>
-      </c>
-      <c r="S127" s="18">
-        <v>13</v>
-      </c>
-      <c r="T127" s="18">
-        <v>3</v>
-      </c>
-      <c r="U127" s="18">
-        <v>1</v>
-      </c>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
+      <c r="R127" s="18"/>
+      <c r="S127" s="18"/>
+      <c r="T127" s="18"/>
+      <c r="U127" s="18"/>
       <c r="V127" s="17"/>
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
@@ -10904,43 +8449,19 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="17"/>
-      <c r="J128" s="18">
-        <v>30</v>
-      </c>
-      <c r="K128" s="18">
-        <v>90</v>
-      </c>
-      <c r="L128" s="18">
-        <v>54</v>
-      </c>
-      <c r="M128" s="18">
-        <v>7</v>
-      </c>
-      <c r="N128" s="18">
-        <v>3</v>
-      </c>
-      <c r="O128" s="18">
-        <v>1</v>
-      </c>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
       <c r="P128" s="17"/>
-      <c r="Q128" s="18">
-        <v>30</v>
-      </c>
-      <c r="R128" s="18">
-        <v>90</v>
-      </c>
-      <c r="S128" s="18">
-        <v>54</v>
-      </c>
-      <c r="T128" s="18">
-        <v>7</v>
-      </c>
-      <c r="U128" s="18">
-        <v>3</v>
-      </c>
-      <c r="V128" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="18"/>
+      <c r="S128" s="18"/>
+      <c r="T128" s="18"/>
+      <c r="U128" s="18"/>
+      <c r="V128" s="18"/>
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
@@ -10968,38 +8489,18 @@
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="17"/>
-      <c r="J129" s="18">
-        <v>12</v>
-      </c>
-      <c r="K129" s="18">
-        <v>60</v>
-      </c>
-      <c r="L129" s="18">
-        <v>50</v>
-      </c>
-      <c r="M129" s="18">
-        <v>10</v>
-      </c>
-      <c r="N129" s="18">
-        <v>2</v>
-      </c>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
       <c r="O129" s="17"/>
       <c r="P129" s="17"/>
-      <c r="Q129" s="18">
-        <v>12</v>
-      </c>
-      <c r="R129" s="18">
-        <v>60</v>
-      </c>
-      <c r="S129" s="18">
-        <v>50</v>
-      </c>
-      <c r="T129" s="18">
-        <v>10</v>
-      </c>
-      <c r="U129" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q129" s="18"/>
+      <c r="R129" s="18"/>
+      <c r="S129" s="18"/>
+      <c r="T129" s="18"/>
+      <c r="U129" s="18"/>
       <c r="V129" s="17"/>
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
@@ -11028,33 +8529,17 @@
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="17"/>
-      <c r="J130" s="18">
-        <v>15</v>
-      </c>
-      <c r="K130" s="18">
-        <v>150</v>
-      </c>
-      <c r="L130" s="18">
-        <v>30</v>
-      </c>
-      <c r="M130" s="18">
-        <v>5</v>
-      </c>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
       <c r="N130" s="17"/>
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
-      <c r="Q130" s="18">
-        <v>15</v>
-      </c>
-      <c r="R130" s="18">
-        <v>150</v>
-      </c>
-      <c r="S130" s="18">
-        <v>30</v>
-      </c>
-      <c r="T130" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q130" s="18"/>
+      <c r="R130" s="18"/>
+      <c r="S130" s="18"/>
+      <c r="T130" s="18"/>
       <c r="U130" s="17"/>
       <c r="V130" s="17"/>
       <c r="W130" s="4"/>
@@ -11085,28 +8570,16 @@
       <c r="H131" s="8"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
-      <c r="K131" s="18">
-        <v>35</v>
-      </c>
-      <c r="L131" s="18">
-        <v>25</v>
-      </c>
-      <c r="M131" s="18">
-        <v>5</v>
-      </c>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
       <c r="N131" s="17"/>
       <c r="O131" s="17"/>
       <c r="P131" s="17"/>
       <c r="Q131" s="17"/>
-      <c r="R131" s="18">
-        <v>35</v>
-      </c>
-      <c r="S131" s="18">
-        <v>25</v>
-      </c>
-      <c r="T131" s="18">
-        <v>5</v>
-      </c>
+      <c r="R131" s="18"/>
+      <c r="S131" s="18"/>
+      <c r="T131" s="18"/>
       <c r="U131" s="17"/>
       <c r="V131" s="17"/>
       <c r="W131" s="4"/>
@@ -11135,48 +8608,20 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="19">
-        <v>0</v>
-      </c>
-      <c r="J132" s="18">
-        <v>6</v>
-      </c>
-      <c r="K132" s="18">
-        <v>48</v>
-      </c>
-      <c r="L132" s="18">
-        <v>20</v>
-      </c>
-      <c r="M132" s="18">
-        <v>3</v>
-      </c>
-      <c r="N132" s="19">
-        <v>0</v>
-      </c>
-      <c r="O132" s="19">
-        <v>0</v>
-      </c>
-      <c r="P132" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q132" s="18">
-        <v>6</v>
-      </c>
-      <c r="R132" s="18">
-        <v>48</v>
-      </c>
-      <c r="S132" s="18">
-        <v>20</v>
-      </c>
-      <c r="T132" s="18">
-        <v>3</v>
-      </c>
-      <c r="U132" s="19">
-        <v>0</v>
-      </c>
-      <c r="V132" s="19">
-        <v>0</v>
-      </c>
+      <c r="I132" s="19"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="18"/>
+      <c r="R132" s="18"/>
+      <c r="S132" s="18"/>
+      <c r="T132" s="18"/>
+      <c r="U132" s="19"/>
+      <c r="V132" s="19"/>
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
@@ -11205,33 +8650,17 @@
       <c r="H133" s="8"/>
       <c r="I133" s="17"/>
       <c r="J133" s="17"/>
-      <c r="K133" s="18">
-        <v>10</v>
-      </c>
-      <c r="L133" s="18">
-        <v>15</v>
-      </c>
-      <c r="M133" s="18">
-        <v>10</v>
-      </c>
-      <c r="N133" s="18">
-        <v>3</v>
-      </c>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18"/>
       <c r="O133" s="17"/>
       <c r="P133" s="17"/>
       <c r="Q133" s="17"/>
-      <c r="R133" s="18">
-        <v>10</v>
-      </c>
-      <c r="S133" s="18">
-        <v>15</v>
-      </c>
-      <c r="T133" s="18">
-        <v>10</v>
-      </c>
-      <c r="U133" s="18">
-        <v>3</v>
-      </c>
+      <c r="R133" s="18"/>
+      <c r="S133" s="18"/>
+      <c r="T133" s="18"/>
+      <c r="U133" s="18"/>
       <c r="V133" s="17"/>
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
@@ -11259,43 +8688,19 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="18">
-        <v>26</v>
-      </c>
-      <c r="J134" s="18">
-        <v>66</v>
-      </c>
-      <c r="K134" s="18">
-        <v>70</v>
-      </c>
-      <c r="L134" s="18">
-        <v>50</v>
-      </c>
-      <c r="M134" s="18">
-        <v>10</v>
-      </c>
-      <c r="N134" s="18">
-        <v>2</v>
-      </c>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="18"/>
       <c r="O134" s="17"/>
-      <c r="P134" s="18">
-        <v>26</v>
-      </c>
-      <c r="Q134" s="18">
-        <v>66</v>
-      </c>
-      <c r="R134" s="18">
-        <v>70</v>
-      </c>
-      <c r="S134" s="18">
-        <v>50</v>
-      </c>
-      <c r="T134" s="18">
-        <v>10</v>
-      </c>
-      <c r="U134" s="18">
-        <v>2</v>
-      </c>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="18"/>
+      <c r="S134" s="18"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
       <c r="V134" s="17"/>
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
@@ -11324,33 +8729,17 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="17"/>
-      <c r="J135" s="18">
-        <v>20</v>
-      </c>
-      <c r="K135" s="18">
-        <v>60</v>
-      </c>
-      <c r="L135" s="18">
-        <v>50</v>
-      </c>
-      <c r="M135" s="18">
-        <v>20</v>
-      </c>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
       <c r="N135" s="17"/>
       <c r="O135" s="17"/>
       <c r="P135" s="17"/>
-      <c r="Q135" s="18">
-        <v>20</v>
-      </c>
-      <c r="R135" s="18">
-        <v>60</v>
-      </c>
-      <c r="S135" s="18">
-        <v>50</v>
-      </c>
-      <c r="T135" s="18">
-        <v>20</v>
-      </c>
+      <c r="Q135" s="18"/>
+      <c r="R135" s="18"/>
+      <c r="S135" s="18"/>
+      <c r="T135" s="18"/>
       <c r="U135" s="17"/>
       <c r="V135" s="17"/>
       <c r="W135" s="4"/>
@@ -11380,39 +8769,19 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="17"/>
-      <c r="J136" s="18">
-        <v>44</v>
-      </c>
-      <c r="K136" s="18">
-        <v>45</v>
-      </c>
-      <c r="L136" s="18">
-        <v>30</v>
-      </c>
-      <c r="M136" s="18">
-        <v>5</v>
-      </c>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
       <c r="N136" s="17"/>
-      <c r="O136" s="18">
-        <v>1</v>
-      </c>
+      <c r="O136" s="18"/>
       <c r="P136" s="17"/>
-      <c r="Q136" s="18">
-        <v>44</v>
-      </c>
-      <c r="R136" s="18">
-        <v>45</v>
-      </c>
-      <c r="S136" s="18">
-        <v>30</v>
-      </c>
-      <c r="T136" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q136" s="18"/>
+      <c r="R136" s="18"/>
+      <c r="S136" s="18"/>
+      <c r="T136" s="18"/>
       <c r="U136" s="17"/>
-      <c r="V136" s="18">
-        <v>1</v>
-      </c>
+      <c r="V136" s="18"/>
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
@@ -11439,43 +8808,19 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="18">
-        <v>3</v>
-      </c>
-      <c r="J137" s="18">
-        <v>7</v>
-      </c>
-      <c r="K137" s="18">
-        <v>40</v>
-      </c>
-      <c r="L137" s="18">
-        <v>30</v>
-      </c>
-      <c r="M137" s="18">
-        <v>4</v>
-      </c>
-      <c r="N137" s="18">
-        <v>2</v>
-      </c>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
       <c r="O137" s="17"/>
-      <c r="P137" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q137" s="18">
-        <v>7</v>
-      </c>
-      <c r="R137" s="18">
-        <v>40</v>
-      </c>
-      <c r="S137" s="18">
-        <v>30</v>
-      </c>
-      <c r="T137" s="18">
-        <v>4</v>
-      </c>
-      <c r="U137" s="18">
-        <v>2</v>
-      </c>
+      <c r="P137" s="18"/>
+      <c r="Q137" s="18"/>
+      <c r="R137" s="18"/>
+      <c r="S137" s="18"/>
+      <c r="T137" s="18"/>
+      <c r="U137" s="18"/>
       <c r="V137" s="17"/>
       <c r="W137" s="4"/>
       <c r="X137" s="4"/>
@@ -11504,39 +8849,19 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="17"/>
-      <c r="J138" s="18">
-        <v>10</v>
-      </c>
-      <c r="K138" s="18">
-        <v>20</v>
-      </c>
-      <c r="L138" s="18">
-        <v>20</v>
-      </c>
-      <c r="M138" s="18">
-        <v>3</v>
-      </c>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
       <c r="N138" s="17"/>
-      <c r="O138" s="18">
-        <v>1</v>
-      </c>
+      <c r="O138" s="18"/>
       <c r="P138" s="17"/>
-      <c r="Q138" s="18">
-        <v>10</v>
-      </c>
-      <c r="R138" s="18">
-        <v>20</v>
-      </c>
-      <c r="S138" s="18">
-        <v>20</v>
-      </c>
-      <c r="T138" s="18">
-        <v>3</v>
-      </c>
+      <c r="Q138" s="18"/>
+      <c r="R138" s="18"/>
+      <c r="S138" s="18"/>
+      <c r="T138" s="18"/>
       <c r="U138" s="17"/>
-      <c r="V138" s="18">
-        <v>1</v>
-      </c>
+      <c r="V138" s="18"/>
       <c r="W138" s="4"/>
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
@@ -11564,43 +8889,19 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="I139" s="17"/>
-      <c r="J139" s="18">
-        <v>20</v>
-      </c>
-      <c r="K139" s="18">
-        <v>115</v>
-      </c>
-      <c r="L139" s="18">
-        <v>115</v>
-      </c>
-      <c r="M139" s="18">
-        <v>6</v>
-      </c>
-      <c r="N139" s="18">
-        <v>6</v>
-      </c>
-      <c r="O139" s="18">
-        <v>4</v>
-      </c>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+      <c r="O139" s="18"/>
       <c r="P139" s="17"/>
-      <c r="Q139" s="18">
-        <v>20</v>
-      </c>
-      <c r="R139" s="18">
-        <v>115</v>
-      </c>
-      <c r="S139" s="18">
-        <v>115</v>
-      </c>
-      <c r="T139" s="18">
-        <v>6</v>
-      </c>
-      <c r="U139" s="18">
-        <v>6</v>
-      </c>
-      <c r="V139" s="18">
-        <v>4</v>
-      </c>
+      <c r="Q139" s="18"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="18"/>
+      <c r="T139" s="18"/>
+      <c r="U139" s="18"/>
+      <c r="V139" s="18"/>
       <c r="W139" s="4"/>
       <c r="X139" s="4"/>
       <c r="Y139" s="4"/>
@@ -11628,28 +8929,16 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
       <c r="I140" s="17"/>
-      <c r="J140" s="18">
-        <v>40</v>
-      </c>
-      <c r="K140" s="18">
-        <v>60</v>
-      </c>
-      <c r="L140" s="18">
-        <v>5</v>
-      </c>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
       <c r="O140" s="17"/>
       <c r="P140" s="17"/>
-      <c r="Q140" s="18">
-        <v>40</v>
-      </c>
-      <c r="R140" s="18">
-        <v>60</v>
-      </c>
-      <c r="S140" s="18">
-        <v>5</v>
-      </c>
+      <c r="Q140" s="18"/>
+      <c r="R140" s="18"/>
+      <c r="S140" s="18"/>
       <c r="T140" s="17"/>
       <c r="U140" s="17"/>
       <c r="V140" s="17"/>
@@ -11680,33 +8969,17 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="18">
-        <v>26</v>
-      </c>
-      <c r="K141" s="18">
-        <v>39</v>
-      </c>
-      <c r="L141" s="18">
-        <v>4</v>
-      </c>
-      <c r="M141" s="18">
-        <v>2</v>
-      </c>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
       <c r="N141" s="17"/>
       <c r="O141" s="17"/>
       <c r="P141" s="17"/>
-      <c r="Q141" s="18">
-        <v>26</v>
-      </c>
-      <c r="R141" s="18">
-        <v>39</v>
-      </c>
-      <c r="S141" s="18">
-        <v>4</v>
-      </c>
-      <c r="T141" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q141" s="18"/>
+      <c r="R141" s="18"/>
+      <c r="S141" s="18"/>
+      <c r="T141" s="18"/>
       <c r="U141" s="17"/>
       <c r="V141" s="17"/>
       <c r="W141" s="4"/>
@@ -11737,28 +9010,16 @@
       <c r="H142" s="8"/>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
-      <c r="K142" s="18">
-        <v>25</v>
-      </c>
-      <c r="L142" s="18">
-        <v>35</v>
-      </c>
-      <c r="M142" s="18">
-        <v>2</v>
-      </c>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
       <c r="N142" s="17"/>
       <c r="O142" s="17"/>
       <c r="P142" s="17"/>
       <c r="Q142" s="17"/>
-      <c r="R142" s="18">
-        <v>25</v>
-      </c>
-      <c r="S142" s="18">
-        <v>35</v>
-      </c>
-      <c r="T142" s="18">
-        <v>2</v>
-      </c>
+      <c r="R142" s="18"/>
+      <c r="S142" s="18"/>
+      <c r="T142" s="18"/>
       <c r="U142" s="17"/>
       <c r="V142" s="17"/>
       <c r="W142" s="4"/>
@@ -11789,33 +9050,17 @@
       <c r="H143" s="8"/>
       <c r="I143" s="17"/>
       <c r="J143" s="17"/>
-      <c r="K143" s="17">
-        <v>75</v>
-      </c>
-      <c r="L143" s="17">
-        <v>100</v>
-      </c>
-      <c r="M143" s="17">
-        <v>150</v>
-      </c>
-      <c r="N143" s="17">
-        <v>100</v>
-      </c>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
       <c r="O143" s="17"/>
       <c r="P143" s="17"/>
       <c r="Q143" s="17"/>
-      <c r="R143" s="17">
-        <v>75</v>
-      </c>
-      <c r="S143" s="17">
-        <v>100</v>
-      </c>
-      <c r="T143" s="17">
-        <v>150</v>
-      </c>
-      <c r="U143" s="17">
-        <v>100</v>
-      </c>
+      <c r="R143" s="17"/>
+      <c r="S143" s="17"/>
+      <c r="T143" s="17"/>
+      <c r="U143" s="17"/>
       <c r="V143" s="17"/>
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>

--- a/core/utils/distribuicao.xlsx
+++ b/core/utils/distribuicao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ventura_project\ventura_project_backend\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\projeto ventura backend\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB3E5C0-9543-49E6-AFBF-A28DDFC94AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28134131-1524-477B-8695-3B5B3B977B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3285,7 +3285,7 @@
   <dimension ref="A1:AB784"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3488,12 +3488,24 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="I4" s="17">
+        <v>4</v>
+      </c>
+      <c r="J4" s="17">
+        <v>5</v>
+      </c>
+      <c r="K4" s="18">
+        <v>5</v>
+      </c>
+      <c r="L4" s="18">
+        <v>5</v>
+      </c>
+      <c r="M4" s="18">
+        <v>5</v>
+      </c>
+      <c r="N4" s="18">
+        <v>5</v>
+      </c>
       <c r="O4" s="18"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
